--- a/src/attributions/attributions_saliency_traj_331.xlsx
+++ b/src/attributions/attributions_saliency_traj_331.xlsx
@@ -1573,571 +1573,571 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03718741983175278</v>
+        <v>0.1218369454145432</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01406182534992695</v>
+        <v>1.128921151161194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007848102599382401</v>
+        <v>0.1170903667807579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01007701456546783</v>
+        <v>0.241799458861351</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01033629570156336</v>
+        <v>0.2542877495288849</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006509056780487299</v>
+        <v>0.08236409723758698</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009105687029659748</v>
+        <v>0.0540260374546051</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00207407888956368</v>
+        <v>0.03084775619208813</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003726090770214796</v>
+        <v>0.06695470213890076</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03626993298530579</v>
+        <v>0.2257925719022751</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006511189043521881</v>
+        <v>0.9564793109893799</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01619189232587814</v>
+        <v>0.05006644502282143</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01317150983959436</v>
+        <v>0.4547253549098969</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005924727767705917</v>
+        <v>0.3488337695598602</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009937240742146969</v>
+        <v>0.08225761353969574</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01308972202241421</v>
+        <v>0.08110616356134415</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004390923772007227</v>
+        <v>0.1148066073656082</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003474497701972723</v>
+        <v>0.1703599691390991</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001076346263289452</v>
+        <v>0.04744552448391914</v>
       </c>
       <c r="T3" t="n">
-        <v>0.003179708030074835</v>
+        <v>0.2470319420099258</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002558477688580751</v>
+        <v>0.05438258498907089</v>
       </c>
       <c r="V3" t="n">
-        <v>0.006748131476342678</v>
+        <v>0.0577487125992775</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004119089804589748</v>
+        <v>0.2032551318407059</v>
       </c>
       <c r="X3" t="n">
-        <v>0.003238497767597437</v>
+        <v>0.09192245453596115</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002801778726279736</v>
+        <v>0.01193566806614399</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.777009159326553e-06</v>
+        <v>0.102772131562233</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001339762238785625</v>
+        <v>0.02540982887148857</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.005734513513743877</v>
+        <v>0.1207468509674072</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001518104807473719</v>
+        <v>0.1702865064144135</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002686372958123684</v>
+        <v>0.1230636388063431</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00712668476626277</v>
+        <v>0.1031090170145035</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.005914253648370504</v>
+        <v>0.1558815985918045</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.008369714953005314</v>
+        <v>0.1492897570133209</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.00101936049759388</v>
+        <v>0.02195443399250507</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.007569781970232725</v>
+        <v>0.01710829883813858</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0001143526751548052</v>
+        <v>0.03708501532673836</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.01017109211534262</v>
+        <v>0.1283907145261765</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.006090274080634117</v>
+        <v>0.111383818089962</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0007093502790667117</v>
+        <v>0.0018715166952461</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.003593454603105783</v>
+        <v>0.08689481019973755</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.000136165923322551</v>
+        <v>0.06210555881261826</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.003836632007732987</v>
+        <v>0.1678070425987244</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.000318447535391897</v>
+        <v>0.01807139813899994</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.006046232767403126</v>
+        <v>0.02459454536437988</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001756520359776914</v>
+        <v>0.01708030514419079</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.01734141819179058</v>
+        <v>0.004501345101743937</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0004680930869653821</v>
+        <v>0.6430382132530212</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.009128797799348831</v>
+        <v>0.1153908893465996</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.003117004642263055</v>
+        <v>0.1961202770471573</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.00483257370069623</v>
+        <v>0.1712572425603867</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.01198268868029118</v>
+        <v>0.06302840262651443</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.004942093044519424</v>
+        <v>0.2042251527309418</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.004979484714567661</v>
+        <v>0.05289780348539352</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.00175385142210871</v>
+        <v>0.03098005801439285</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.009190554730594158</v>
+        <v>0.03820206969976425</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.006312725599855185</v>
+        <v>0.2047334909439087</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.005597295239567757</v>
+        <v>0.1279834359884262</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0005052016349509358</v>
+        <v>0.1658279001712799</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0006041837041266263</v>
+        <v>0.2444874346256256</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.002835502149537206</v>
+        <v>0.05786384269595146</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.01086105220019817</v>
+        <v>0.05213800817728043</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.02111908420920372</v>
+        <v>0.02413827180862427</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0004156598588451743</v>
+        <v>0.1053547337651253</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.00365933496505022</v>
+        <v>0.0449892170727253</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.004577632993459702</v>
+        <v>0.03430169820785522</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0001568661537021399</v>
+        <v>0.02380029112100601</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003446964547038078</v>
+        <v>0.08296403288841248</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.005409071687608957</v>
+        <v>0.2386744171380997</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0003448962233960629</v>
+        <v>0.126008078455925</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.00114780489820987</v>
+        <v>0.09021922200918198</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.004454171285033226</v>
+        <v>0.09510066360235214</v>
       </c>
       <c r="BT3" t="n">
-        <v>5.558191332966089e-05</v>
+        <v>0.11845862865448</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.01634703576564789</v>
+        <v>0.03798168525099754</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.004803325049579144</v>
+        <v>0.358279675245285</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.003764210734516382</v>
+        <v>0.130535215139389</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.004213853273540735</v>
+        <v>0.02653029002249241</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.006121333688497543</v>
+        <v>0.1187946572899818</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.001511839684098959</v>
+        <v>0.003736862912774086</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.001708104740828276</v>
+        <v>0.07981708645820618</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.00359765300527215</v>
+        <v>0.0378437228500843</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.002779544331133366</v>
+        <v>0.03105015307664871</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.007966564036905766</v>
+        <v>0.008083472028374672</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.009729094803333282</v>
+        <v>0.211746871471405</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0002539585111662745</v>
+        <v>0.01177240163087845</v>
       </c>
       <c r="CG3" t="n">
-        <v>3.978179302066565e-05</v>
+        <v>0.001974299550056458</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0020935726352036</v>
+        <v>0.003859755117446184</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.001788991270586848</v>
+        <v>0.03741331398487091</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0009766619186848402</v>
+        <v>0.02475113235414028</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.001383362687192857</v>
+        <v>0.02310529351234436</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.000275297905318439</v>
+        <v>0.04136035963892937</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.003787496127188206</v>
+        <v>0.213249459862709</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.002255257219076157</v>
+        <v>0.08739730715751648</v>
       </c>
       <c r="CO3" t="n">
-        <v>4.988483851775527e-05</v>
+        <v>0.0712021216750145</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.004399944096803665</v>
+        <v>0.1912979334592819</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.005348192527890205</v>
+        <v>0.2832147777080536</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.01249326858669519</v>
+        <v>0.1403789073228836</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.001170448260381818</v>
+        <v>0.09774154424667358</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.01238160394132137</v>
+        <v>0.1511623859405518</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0007959028007462621</v>
+        <v>0.07997986674308777</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.00677551282569766</v>
+        <v>0.006630952470004559</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.009637612849473953</v>
+        <v>0.2140029966831207</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.001352968625724316</v>
+        <v>0.03630870208144188</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0003454451798461378</v>
+        <v>0.04044207558035851</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.004376320634037256</v>
+        <v>0.002174268942326307</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.002277964260429144</v>
+        <v>0.01439603045582771</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.001372512429952621</v>
+        <v>0.05782684683799744</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0001354201667709276</v>
+        <v>0.03504250943660736</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0004050388233736157</v>
+        <v>0.03203003853559494</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.003044804558157921</v>
+        <v>0.09826729446649551</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0215051993727684</v>
+        <v>0.4026438295841217</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.008107338100671768</v>
+        <v>0.09945405274629593</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.002168769016861916</v>
+        <v>0.004629375413060188</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.002705326769500971</v>
+        <v>0.05631740391254425</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.001969530945643783</v>
+        <v>0.03896027058362961</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.005583010613918304</v>
+        <v>0.01680844835937023</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.004049476701766253</v>
+        <v>0.04557407647371292</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.000977430259808898</v>
+        <v>0.01214445941150188</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.001916507724672556</v>
+        <v>0.06854121387004852</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.006212609820067883</v>
+        <v>0.1468450427055359</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.001258524949662387</v>
+        <v>0.05742880329489708</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.001309883664362133</v>
+        <v>0.1332299411296844</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.004548727534711361</v>
+        <v>0.1210971176624298</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0003538109885994345</v>
+        <v>0.005699343979358673</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.003045600140467286</v>
+        <v>0.04609908908605576</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.001101959147490561</v>
+        <v>0.04782704263925552</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0008913517231121659</v>
+        <v>0.01045194081962109</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.001810919959098101</v>
+        <v>0.0171554908156395</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0005572219379246235</v>
+        <v>0.2594024240970612</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.004206795245409012</v>
+        <v>0.04827121645212173</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.004523187875747681</v>
+        <v>0.1138868555426598</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0006269376026466489</v>
+        <v>0.04183195158839226</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.003132290905341506</v>
+        <v>0.1265327483415604</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.005492407362908125</v>
+        <v>0.008498549461364746</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.007396064233034849</v>
+        <v>0.1655428558588028</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0006797885289415717</v>
+        <v>0.06000705808401108</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.01473740860819817</v>
+        <v>0.01029099710285664</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.008528393693268299</v>
+        <v>0.09289843589067459</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0009801596170291305</v>
+        <v>0.01345679257065058</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.001483183354139328</v>
+        <v>0.02331589348614216</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.004241030663251877</v>
+        <v>0.07621035724878311</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.006689233705401421</v>
+        <v>0.02582333981990814</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0004490861902013421</v>
+        <v>0.09610112011432648</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.008261518552899361</v>
+        <v>0.0233546756207943</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.001020930241793394</v>
+        <v>0.05291507765650749</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.00340175861492753</v>
+        <v>0.003254950046539307</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.005809659138321877</v>
+        <v>0.1760057806968689</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.006755422335118055</v>
+        <v>0.1000989302992821</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.001741865649819374</v>
+        <v>0.04856729507446289</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0004450895357877016</v>
+        <v>0.03897129371762276</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.00391744077205658</v>
+        <v>0.0002361955121159554</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.004704609047621489</v>
+        <v>0.01840178854763508</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.003491993062198162</v>
+        <v>0.003256155643612146</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.001541276345960796</v>
+        <v>0.02921904250979424</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.007177497260272503</v>
+        <v>0.03305087238550186</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.008655214682221413</v>
+        <v>0.2301012426614761</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0020342324860394</v>
+        <v>0.005989811383187771</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0004622420528903604</v>
+        <v>0.005298951640725136</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.003397979307919741</v>
+        <v>0.01114368159323931</v>
       </c>
       <c r="FC3" t="n">
-        <v>3.071180253755301e-05</v>
+        <v>0.002950234804302454</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0008818847709335387</v>
+        <v>0.05469157174229622</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.002543967682868242</v>
+        <v>0.04519356787204742</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.001544158207252622</v>
+        <v>0.02336808107793331</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.00597857590764761</v>
+        <v>0.01623372547328472</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.002237617038190365</v>
+        <v>0.05879342555999756</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0001683475857134908</v>
+        <v>0.02700737118721008</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.003736118320375681</v>
+        <v>0.02539943903684616</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.006492591463029385</v>
+        <v>0.1210647001862526</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.004756390582770109</v>
+        <v>0.04125760123133659</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.004770240746438503</v>
+        <v>0.07490599155426025</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.004889580421149731</v>
+        <v>0.03195472061634064</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.001895024441182613</v>
+        <v>0.005456605926156044</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003387955017387867</v>
+        <v>0.06360703706741333</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.01012310665100813</v>
+        <v>0.1698195934295654</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.007596168201416731</v>
+        <v>0.07764798402786255</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.005051919259130955</v>
+        <v>0.07480640709400177</v>
       </c>
       <c r="FT3" t="n">
-        <v>8.819860522635281e-05</v>
+        <v>0.04517130181193352</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.0005622898461297154</v>
+        <v>0.08594115078449249</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.005221271421760321</v>
+        <v>0.04082638397812843</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.00607733428478241</v>
+        <v>0.2972059547901154</v>
       </c>
       <c r="FX3" t="n">
-        <v>2.692537964321673e-05</v>
+        <v>0.04170712828636169</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.005502373911440372</v>
+        <v>0.1157793700695038</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.005773328710347414</v>
+        <v>0.05087712407112122</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.003295551287010312</v>
+        <v>0.01581372320652008</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.001835509436205029</v>
+        <v>0.0992763340473175</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.002223651623353362</v>
+        <v>0.324241042137146</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0001661756105022505</v>
+        <v>0.1712769567966461</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.002719269832596183</v>
+        <v>0.1065809801220894</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.003056258428841829</v>
+        <v>0.1239957436919212</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.002295458922162652</v>
+        <v>0.01188496965914965</v>
       </c>
     </row>
     <row r="4">
@@ -2711,5123 +2711,5123 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01374106481671333</v>
+        <v>0.0001441172207705677</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005696918349713087</v>
+        <v>0.002425110200420022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004763966135215014</v>
+        <v>0.000146242295159027</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00486808130517602</v>
+        <v>0.001083231763914227</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003419300774112344</v>
+        <v>0.000512606929987669</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002856306382454932</v>
+        <v>3.814393494394608e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002406323794275522</v>
+        <v>0.0002830433659255505</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009501192253082991</v>
+        <v>0.0004842132912017405</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001973239704966545</v>
+        <v>0.0001044922100845724</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01217013411223888</v>
+        <v>2.967074397020042e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001669034012593329</v>
+        <v>0.002280444372445345</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002568837953731418</v>
+        <v>9.463791502639651e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00611797533929348</v>
+        <v>0.001266006729565561</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0069590974599123</v>
+        <v>0.0002895482466556132</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001049733604304492</v>
+        <v>0.0003589920816011727</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001302884658798575</v>
+        <v>0.0002315669698873535</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0004994589253328741</v>
+        <v>0.0001569878513691947</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001363083487376571</v>
+        <v>3.101848778896965e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001495276810601354</v>
+        <v>0.0001356453140033409</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0004526814445853233</v>
+        <v>0.0004705135361291468</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0005474632489494979</v>
+        <v>0.0002925860753748566</v>
       </c>
       <c r="V5" t="n">
-        <v>0.000771557679399848</v>
+        <v>0.0001373452541884035</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0009937109425663948</v>
+        <v>0.0004749154904857278</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0005820539663545787</v>
+        <v>0.0005062376148998737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001868801424279809</v>
+        <v>0.0003043961769435555</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001337042893283069</v>
+        <v>5.081693234387785e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0003705887065734714</v>
+        <v>0.0001730312069412321</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.002697753487154841</v>
+        <v>0.0001152868499048054</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.427430632058531e-05</v>
+        <v>0.0007927693659439683</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001388649572618306</v>
+        <v>4.236808308633044e-06</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.002125621540471911</v>
+        <v>0.0003952598781324923</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.002081982791423798</v>
+        <v>0.0001013938672258519</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001184896682389081</v>
+        <v>0.0003409287892282009</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0006039560539647937</v>
+        <v>0.0004948889836668968</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.003038094844669104</v>
+        <v>0.0004091660957783461</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0007784969639033079</v>
+        <v>0.0002459214592818171</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.00265264674089849</v>
+        <v>0.0001484512467868626</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0001195444056065753</v>
+        <v>3.295619899290614e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0006157451425679028</v>
+        <v>9.363654680782929e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.011173637583852e-05</v>
+        <v>0.0004548606812022626</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001143567962571979</v>
+        <v>0.0002264780923724174</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.000956338772084564</v>
+        <v>0.0001705901813693345</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0001998030784307048</v>
+        <v>0.0002051570918411016</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.002514319727197289</v>
+        <v>0.0001854083384387195</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.000356558186467737</v>
+        <v>8.007072756299749e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.006837964989244938</v>
+        <v>5.083772521174978e-06</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.001673212042078376</v>
+        <v>0.001243641367182136</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.001142625929787755</v>
+        <v>0.0004396052099764347</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.001388551900163293</v>
+        <v>0.000452801090432331</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.002058542566373944</v>
+        <v>0.001073892810381949</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.003545399755239487</v>
+        <v>0.0003192453878000379</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0004156917275395244</v>
+        <v>0.0002275521837873384</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.00014096601807978</v>
+        <v>0.0006884152535349131</v>
       </c>
       <c r="BB5" t="n">
-        <v>7.165341230574995e-05</v>
+        <v>0.0002751263964455575</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.004283396992832422</v>
+        <v>0.0003562405763659626</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.948329008882865e-05</v>
+        <v>0.0004841448972001672</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0009312444599345326</v>
+        <v>0.0005751259159296751</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.0008863011607900262</v>
+        <v>4.360266757430509e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0006384813459590077</v>
+        <v>0.0004763930919580162</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.001374807208776474</v>
+        <v>8.614810940343887e-05</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.002650976646691561</v>
+        <v>0.0001182461273856461</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.003716280218213797</v>
+        <v>0.0001901220675790682</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0005202668253332376</v>
+        <v>0.0002421294630039483</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.000723191536962986</v>
+        <v>0.0002995239337906241</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.001351454528048635</v>
+        <v>0.0001937307824846357</v>
       </c>
       <c r="BN5" t="n">
-        <v>4.059847560711205e-05</v>
+        <v>2.427271101623774e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.001934226369485259</v>
+        <v>0.0007003892678767443</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0009183940710499883</v>
+        <v>0.0006358076352626085</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2.700720506254584e-05</v>
+        <v>0.000362191058229655</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0002992113004438579</v>
+        <v>0.0001621466944925487</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0009510087547823787</v>
+        <v>4.401835758471861e-05</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0008042666595429182</v>
+        <v>0.000485223950818181</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.005869072396308184</v>
+        <v>6.367328751366585e-06</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0008475159993395209</v>
+        <v>0.0007967482670210302</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0009781236294656992</v>
+        <v>8.663391054142267e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.001833045389503241</v>
+        <v>3.2389991247328e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.002220103284344077</v>
+        <v>0.00054146972252056</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.001371294260025024</v>
+        <v>0.0001056911642081104</v>
       </c>
       <c r="CA5" t="n">
-        <v>8.832826279103756e-05</v>
+        <v>0.0003039086877834052</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0007360032759606838</v>
+        <v>0.0002467675949446857</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0001766644418239594</v>
+        <v>0.000121141696581617</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.002870371099561453</v>
+        <v>5.661842078552581e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.001925826305523515</v>
+        <v>0.0004971688613295555</v>
       </c>
       <c r="CF5" t="n">
-        <v>6.34873504168354e-06</v>
+        <v>1.685690403974149e-05</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.001110677141696215</v>
+        <v>8.339254418388009e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0003916677087545395</v>
+        <v>7.805328641552478e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0002662087790668011</v>
+        <v>3.002129778906237e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.784642518032342e-05</v>
+        <v>8.737886673770845e-05</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0002993330999743193</v>
+        <v>3.845391984214075e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0002232652914244682</v>
+        <v>2.458742710587103e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.00269754184409976</v>
+        <v>0.0004936330369673669</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.001761696417815983</v>
+        <v>0.0001924645039252937</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0008362620719708502</v>
+        <v>9.484363545197994e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0008312802528962493</v>
+        <v>0.0007266509346663952</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.003033873625099659</v>
+        <v>0.0004376550787128508</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.00151290069334209</v>
+        <v>0.0007428863900713623</v>
       </c>
       <c r="CS5" t="n">
-        <v>5.367569974623621e-05</v>
+        <v>0.0001714989048196003</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.003236720804125071</v>
+        <v>0.0001078323912224732</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0006635438185185194</v>
+        <v>0.0001346627250313759</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.002395507413893938</v>
+        <v>6.941385800018907e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.002247607335448265</v>
+        <v>0.0004715010290965438</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0005098475376144052</v>
+        <v>9.766890434548259e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0004413705319166183</v>
+        <v>0.0002178719878429547</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0003861302975565195</v>
+        <v>0.0001645422162255272</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0006556350272148848</v>
+        <v>2.107234649884049e-06</v>
       </c>
       <c r="DB5" t="n">
-        <v>4.428565443959087e-05</v>
+        <v>9.973185660783201e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>9.248744026990607e-05</v>
+        <v>4.310192889533937e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0002145934849977493</v>
+        <v>3.428263516980223e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>4.305907350499183e-05</v>
+        <v>0.0002551644283812493</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.004450672306120396</v>
+        <v>0.0003344675642438233</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.001482172170653939</v>
+        <v>0.0002325983950868249</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001341120689176023</v>
+        <v>0.0001794060954125598</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0007704267045482993</v>
+        <v>0.0007334948168136179</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0001911486324388534</v>
+        <v>2.718276300583966e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0004626408335752785</v>
+        <v>0.0002185825142078102</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.001348417950794101</v>
+        <v>9.063083416549489e-05</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0003295752103440464</v>
+        <v>0.0002418411604594439</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001601431518793106</v>
+        <v>0.0002283445792272687</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0014995172386989</v>
+        <v>0.0003486575151327997</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0001675022213021293</v>
+        <v>0.0001884273660834879</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0005236418801359832</v>
+        <v>0.0004416769370436668</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.000207645192858763</v>
+        <v>0.0002793392341118306</v>
       </c>
       <c r="DS5" t="n">
-        <v>1.804597923182882e-05</v>
+        <v>0.000139933661557734</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.000336383527610451</v>
+        <v>0.0001249568886123598</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0008689939859323204</v>
+        <v>8.639198313176166e-06</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0006470783846452832</v>
+        <v>0.0004204384167678654</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0004116253985557705</v>
+        <v>0.0001628378231544048</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0003742108820006251</v>
+        <v>7.392106635961682e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0009332228219136596</v>
+        <v>3.148771793348715e-05</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0001343011681456119</v>
+        <v>0.0001549035951029509</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0001565677957842126</v>
+        <v>2.676127769518644e-05</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0003625417011789978</v>
+        <v>0.0001376292348140851</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.001003073295578361</v>
+        <v>0.0001049836864694953</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002792943036183715</v>
+        <v>0.0004068278940394521</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0009278756333515048</v>
+        <v>0.0002376280317548662</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.003874777583405375</v>
+        <v>0.0002960908750537783</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.002782055409625173</v>
+        <v>0.0002800269867293537</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0007293230737559497</v>
+        <v>0.0002030842879321426</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0008852011524140835</v>
+        <v>5.704363866243511e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001152156386524439</v>
+        <v>0.0002683698257897049</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.001516542281024158</v>
+        <v>4.218096728436649e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0008178285788744688</v>
+        <v>8.462193363811821e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.001821196521632373</v>
+        <v>8.550527854822576e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.000419282354414463</v>
+        <v>7.456580351572484e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0001434852019883692</v>
+        <v>4.22077500843443e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.002057107631117105</v>
+        <v>0.0004536989727057517</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.001323147676885128</v>
+        <v>0.00018080766312778</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001346223172731698</v>
+        <v>0.0006324058631435037</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.001793685602024198</v>
+        <v>0.0003689859586302191</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0005325544625520706</v>
+        <v>0.000111194429337047</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0004922756925225258</v>
+        <v>9.728872828418389e-05</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.002056085038930178</v>
+        <v>0.0003472967073321342</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0001902077201521024</v>
+        <v>0.0001470458082621917</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.002815551590174437</v>
+        <v>1.240363417309709e-05</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.001268039108254015</v>
+        <v>0.0005246951477602124</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0004104317631572485</v>
+        <v>1.34546007757308e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0005315231974236667</v>
+        <v>7.59476752136834e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0006145497318357229</v>
+        <v>0.0001548272557556629</v>
       </c>
       <c r="FC5" t="n">
-        <v>9.160538320429623e-05</v>
+        <v>9.881008008960634e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0001825295767048374</v>
+        <v>6.447541090892628e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0004641175910364836</v>
+        <v>3.988101525465026e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>6.043865869287401e-05</v>
+        <v>7.553567411378026e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.001673803315497935</v>
+        <v>1.660201087361202e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.001269911415874958</v>
+        <v>1.836210140027106e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0006394931115210056</v>
+        <v>0.000317575060762465</v>
       </c>
       <c r="FJ5" t="n">
-        <v>5.651364335790277e-05</v>
+        <v>0.0002178957947762683</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.001204679720103741</v>
+        <v>0.0002777610206976533</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0004716904950328171</v>
+        <v>8.76295889611356e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0008553676307201385</v>
+        <v>4.817023000214249e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.001608644030056894</v>
+        <v>6.649395800195634e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0001323733158642426</v>
+        <v>0.0003184436936862767</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.000945348700042814</v>
+        <v>0.0003147159295622259</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.004080373793840408</v>
+        <v>5.035134381614625e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001695699291303754</v>
+        <v>0.0005863024853169918</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.004366733133792877</v>
+        <v>0.0003777598612941802</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0002430486201774329</v>
+        <v>0.0001330862141912803</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0008988787885755301</v>
+        <v>8.512180647812784e-05</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0003333437780383974</v>
+        <v>0.0004757724236696959</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.001407360192388296</v>
+        <v>0.0004921971121802926</v>
       </c>
       <c r="FX5" t="n">
-        <v>5.134654929861426e-05</v>
+        <v>0.0003624140226747841</v>
       </c>
       <c r="FY5" t="n">
-        <v>8.642316970508546e-05</v>
+        <v>0.0002417685609543696</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.001208548899739981</v>
+        <v>0.0001101537491194904</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.001233183429576457</v>
+        <v>1.99343339772895e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>3.550777910277247e-05</v>
+        <v>0.0001660812995396554</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.002265922725200653</v>
+        <v>5.93497788941022e-05</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.000513052218593657</v>
+        <v>0.0005043686251156032</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0005651800893247128</v>
+        <v>0.0007429180550388992</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0005861890385858715</v>
+        <v>1.999344385694712e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.000471580249723047</v>
+        <v>0.0002858702500816435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01101625524461269</v>
+        <v>0.05469995737075806</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01904115825891495</v>
+        <v>0.08678995817899704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01685603708028793</v>
+        <v>0.01071652118116617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02029319480061531</v>
+        <v>0.001519256038591266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0342663899064064</v>
+        <v>0.0645187720656395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004022103734314442</v>
+        <v>0.01842094212770462</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006762637756764889</v>
+        <v>0.02682918682694435</v>
       </c>
       <c r="H6" t="n">
-        <v>6.022641173331067e-06</v>
+        <v>0.02481719478964806</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004570070654153824</v>
+        <v>0.002533722203224897</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009907035157084465</v>
+        <v>0.0313534289598465</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004640559665858746</v>
+        <v>0.09011940658092499</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0286819115281105</v>
+        <v>0.007225492037832737</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02238373644649982</v>
+        <v>0.03980639576911926</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02473559603095055</v>
+        <v>0.07871870696544647</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007082405034452677</v>
+        <v>0.02907432243227959</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008581714704632759</v>
+        <v>0.0347345769405365</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.008597271516919136</v>
+        <v>0.0439826175570488</v>
       </c>
       <c r="R6" t="n">
-        <v>0.003085298230871558</v>
+        <v>0.01196738705039024</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0006825923919677734</v>
+        <v>0.001133705372922122</v>
       </c>
       <c r="T6" t="n">
-        <v>3.723986446857452e-05</v>
+        <v>0.04084353148937225</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001127513591200113</v>
+        <v>0.01175261847674847</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01579254865646362</v>
+        <v>0.03710087388753891</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001352676656097174</v>
+        <v>0.03004567883908749</v>
       </c>
       <c r="X6" t="n">
-        <v>0.003001251490786672</v>
+        <v>0.02893455140292645</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.881619189400226e-05</v>
+        <v>0.02683764882385731</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00340162543579936</v>
+        <v>0.001493360847234726</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0006601487402804196</v>
+        <v>0.003745324444025755</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001734669553115964</v>
+        <v>0.03525113686919212</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.004908107221126556</v>
+        <v>0.04516131803393364</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01071212161332369</v>
+        <v>0.01005097944289446</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.009297911077737808</v>
+        <v>0.004059469792991877</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.002470518462359905</v>
+        <v>0.02459194324910641</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0006878598360344768</v>
+        <v>0.001994753256440163</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.003033634042367339</v>
+        <v>0.04374672472476959</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.003513035597279668</v>
+        <v>0.003758816746994853</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.00653328699991107</v>
+        <v>0.005373968277126551</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.008388244546949863</v>
+        <v>0.007207692600786686</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.008096125908195972</v>
+        <v>0.02880655787885189</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.00645082164555788</v>
+        <v>0.001433071796782315</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.007364241871982813</v>
+        <v>0.001590246800333261</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.006971849594265223</v>
+        <v>0.01731070317327976</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.003346486715599895</v>
+        <v>0.009773524478077888</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.001085173105821013</v>
+        <v>0.001372488331981003</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0002392066089669243</v>
+        <v>0.003966072574257851</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.001437854603864253</v>
+        <v>0.01438361592590809</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.003102452028542757</v>
+        <v>0.008195248432457447</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.008983474224805832</v>
+        <v>0.05442678928375244</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.008674271404743195</v>
+        <v>0.005597800016403198</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.01022117771208286</v>
+        <v>0.001063545234501362</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.009075557813048363</v>
+        <v>0.0001727864146232605</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.01397627685219049</v>
+        <v>0.01890461705625057</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.003639885690063238</v>
+        <v>0.01420655287802219</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.001045212615281343</v>
+        <v>0.01700520887970924</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.00200776057317853</v>
+        <v>0.003793076612055302</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.007903482764959335</v>
+        <v>0.004830517806112766</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01529170572757721</v>
+        <v>0.01215296983718872</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.009172404184937477</v>
+        <v>0.004265547730028629</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.00370577210560441</v>
+        <v>0.007919834926724434</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01516663376241922</v>
+        <v>0.07044529914855957</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.003997849300503731</v>
+        <v>0.001136911567300558</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.01141658890992403</v>
+        <v>0.03073825128376484</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.009162139147520065</v>
+        <v>0.003841795958578587</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.006576817482709885</v>
+        <v>0.002661853563040495</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.00343487854115665</v>
+        <v>0.01344913430511951</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.003520708996802568</v>
+        <v>0.04179380089044571</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.008115914650261402</v>
+        <v>0.01723324693739414</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.006529237143695354</v>
+        <v>0.002921209437772632</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.009646969847381115</v>
+        <v>0.02094918303191662</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.0006627129623666406</v>
+        <v>0.01444033440202475</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.007376136723905802</v>
+        <v>0.007829471491277218</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.01410450600087643</v>
+        <v>0.01778808608651161</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.003829465946182609</v>
+        <v>0.01025431975722313</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.007687639445066452</v>
+        <v>0.005798950791358948</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.003587703919038177</v>
+        <v>0.0477653332054615</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.009854926727712154</v>
+        <v>0.01240878645330667</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.007944058626890182</v>
+        <v>0.004898312501609325</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01083879917860031</v>
+        <v>0.0002050078473985195</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.0001949378201970831</v>
+        <v>0.003596951486542821</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.003271853551268578</v>
+        <v>0.0009696629131212831</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.00303888670168817</v>
+        <v>0.01940140128135681</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.006865165196359158</v>
+        <v>0.002996726427227259</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.001387741765938699</v>
+        <v>0.00776847917586565</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.008080202154815197</v>
+        <v>0.02008460648357868</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.004196684807538986</v>
+        <v>0.001233580056577921</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.00453443918377161</v>
+        <v>0.004688397515565157</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.006683999672532082</v>
+        <v>0.002903773449361324</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.0008988123154267669</v>
+        <v>0.003684157505631447</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.001240469980984926</v>
+        <v>0.0104431938380003</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.002883289242163301</v>
+        <v>0.004870246164500713</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.001176729798316956</v>
+        <v>0.0003547169035300612</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.006951754912734032</v>
+        <v>0.03146318718791008</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.01021178439259529</v>
+        <v>0.007104784250259399</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.003142250468954444</v>
+        <v>0.0003613968729041517</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.001223064493387938</v>
+        <v>0.0008491412736475468</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.01274836342781782</v>
+        <v>0.004562105052173138</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.01464513503015041</v>
+        <v>0.01149975229054689</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.001619426533579826</v>
+        <v>0.01038704067468643</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.0009170908015221357</v>
+        <v>0.01588146947324276</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.001236608834005892</v>
+        <v>0.006077012047171593</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.002460793824866414</v>
+        <v>0.007361066527664661</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.01354444585740566</v>
+        <v>0.0236828476190567</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.004537669476121664</v>
+        <v>0.003578101051971316</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.004737377166748047</v>
+        <v>0.00554811954498291</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.009166513569653034</v>
+        <v>4.278030246496201e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.001102989190258086</v>
+        <v>0.007391813211143017</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.0005886150756850839</v>
+        <v>0.009159257635474205</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.005046858452260494</v>
+        <v>0.01030428521335125</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.0009833443909883499</v>
+        <v>0.003503241576254368</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.01061646826565266</v>
+        <v>0.01792536117136478</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.02581671811640263</v>
+        <v>0.008463518694043159</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.01792954653501511</v>
+        <v>0.002402150770649314</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.01012122537940741</v>
+        <v>0.05851951614022255</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0004104774270672351</v>
+        <v>0.0187162384390831</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.006168919149786234</v>
+        <v>0.0022280253469944</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.004244826268404722</v>
+        <v>0.006040375214070082</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.00941847451031208</v>
+        <v>0.01212923787534237</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.004585765302181244</v>
+        <v>0.02005673758685589</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.001862295204773545</v>
+        <v>0.006142071448266506</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.01555992569774389</v>
+        <v>0.01472907699644566</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.009462930262088776</v>
+        <v>0.01313267648220062</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.002775297965854406</v>
+        <v>0.01907916367053986</v>
       </c>
       <c r="DR6" t="n">
-        <v>2.457937807776034e-05</v>
+        <v>0.01085632760077715</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.0120620746165514</v>
+        <v>0.02469468675553799</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.000180642178747803</v>
+        <v>0.02365382015705109</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.001520467107184231</v>
+        <v>0.00177352677565068</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.005782152526080608</v>
+        <v>0.001162395579740405</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.001872733933851123</v>
+        <v>0.005617850460112095</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.004021525848656893</v>
+        <v>0.0122163537889719</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.001005540485493839</v>
+        <v>0.01667114160954952</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.003964927513152361</v>
+        <v>0.005576029885560274</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.01017525047063828</v>
+        <v>0.01727661490440369</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.001307638711296022</v>
+        <v>0.01296310313045979</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.004470758140087128</v>
+        <v>0.001671258825808764</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.007514435797929764</v>
+        <v>0.0235319510102272</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.006784573197364807</v>
+        <v>0.0047487523406744</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.007408292032778263</v>
+        <v>0.01175815146416426</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.01275255531072617</v>
+        <v>0.003098106943070889</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.001120958011597395</v>
+        <v>0.003592245280742645</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.002946238499134779</v>
+        <v>0.01474251877516508</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.005850255023688078</v>
+        <v>0.003316012676805258</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.002861088840290904</v>
+        <v>0.0007121668895706534</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.00305589591152966</v>
+        <v>0.007373490370810032</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.005234549287706614</v>
+        <v>0.00827132910490036</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.002937102923169732</v>
+        <v>0.007311772555112839</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.001644491218030453</v>
+        <v>0.006426974665373564</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.006266042124480009</v>
+        <v>0.02994275279343128</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.01034308411180973</v>
+        <v>0.007521621882915497</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.003292790846899152</v>
+        <v>0.005883709527552128</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.003973395563662052</v>
+        <v>0.01719224639236927</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.001206014421768486</v>
+        <v>0.01013129204511642</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.00259464094415307</v>
+        <v>0.005901893600821495</v>
       </c>
       <c r="EV6" t="n">
-        <v>6.983079947531223e-05</v>
+        <v>0.008388763293623924</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.001433376222848892</v>
+        <v>0.0008779935305938125</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.004372085444629192</v>
+        <v>0.005260278936475515</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.01016731467097998</v>
+        <v>0.02408028766512871</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.006814212538301945</v>
+        <v>0.005513099487870932</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.003729303367435932</v>
+        <v>0.003531388938426971</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.009449731558561325</v>
+        <v>0.006255540996789932</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.001547302235849202</v>
+        <v>0.004948730580508709</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.000500582973472774</v>
+        <v>0.005294500850141048</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.005062945652753115</v>
+        <v>0.01031455863267183</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.0003272179747000337</v>
+        <v>0.0001019896590150893</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.008472074754536152</v>
+        <v>0.01047351770102978</v>
       </c>
       <c r="FH6" t="n">
-        <v>8.054357022047043e-05</v>
+        <v>0.003627012018114328</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.007185890804976225</v>
+        <v>0.01940137892961502</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.01111659221351147</v>
+        <v>0.03628749772906303</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.005022775381803513</v>
+        <v>0.01222977228462696</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.002564955037087202</v>
+        <v>0.002461973112076521</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.004558216314762831</v>
+        <v>0.01590890623629093</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.00317904120311141</v>
+        <v>0.001639113994315267</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.002479317830875516</v>
+        <v>0.01413817051798105</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.00801602378487587</v>
+        <v>0.01790762692689896</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.01676887832581997</v>
+        <v>0.05351405218243599</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.01030862610787153</v>
+        <v>0.009385610930621624</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.0117735480889678</v>
+        <v>0.01859617792069912</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.001312865875661373</v>
+        <v>0.008843142539262772</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.005512154195457697</v>
+        <v>0.008546316996216774</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.001696216524578631</v>
+        <v>0.02137996070086956</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.003674658015370369</v>
+        <v>0.02484026551246643</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.002665596548467875</v>
+        <v>0.002135558053851128</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.01018769480288029</v>
+        <v>0.02236267738044262</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.008829694241285324</v>
+        <v>0.005701504182070494</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.0001384499482810497</v>
+        <v>0.009755668230354786</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.002104203449562192</v>
+        <v>0.0002283863723278046</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.004253505263477564</v>
+        <v>0.0436347983777523</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.009949393570423126</v>
+        <v>0.004308484029024839</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.003120854031294584</v>
+        <v>0.04264188557863235</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.002960645128041506</v>
+        <v>0.02708936855196953</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.006303101778030396</v>
+        <v>0.002097936347126961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.03901588916778564</v>
+        <v>0.001654379535466433</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008039330132305622</v>
+        <v>0.05990925058722496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002586724236607552</v>
+        <v>0.004476746544241905</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01042911224067211</v>
+        <v>0.03296861425042152</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008493047207593918</v>
+        <v>0.01543734967708588</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003878564573824406</v>
+        <v>0.009506619535386562</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01032314449548721</v>
+        <v>0.006374484859406948</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001692071557044983</v>
+        <v>0.004016528837382793</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002220845315605402</v>
+        <v>0.003213075688108802</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03546800836920738</v>
+        <v>0.002754566958174109</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001135448983404785</v>
+        <v>0.04804715886712074</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007042917888611555</v>
+        <v>0.000586572103202343</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009117310866713524</v>
+        <v>0.03443502262234688</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01641432754695415</v>
+        <v>0.02088985219597816</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008934046141803265</v>
+        <v>0.008666696026921272</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01545875333249569</v>
+        <v>0.004802749492228031</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0003461831365711987</v>
+        <v>0.006059912033379078</v>
       </c>
       <c r="R7" t="n">
-        <v>0.003502142615616322</v>
+        <v>0.005282065831124783</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002684410894289613</v>
+        <v>0.00141447049099952</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001866967184469104</v>
+        <v>0.0103595582768321</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001297759241424501</v>
+        <v>0.004707092419266701</v>
       </c>
       <c r="V7" t="n">
-        <v>0.000333216565195471</v>
+        <v>0.001929994905367494</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001610076171346009</v>
+        <v>0.004599670879542828</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0001113881007768214</v>
+        <v>0.00985367875546217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001718616927973926</v>
+        <v>0.006699636578559875</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001530811190605164</v>
+        <v>0.001261739293113351</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.356328180525452e-05</v>
+        <v>0.00524149788543582</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.004185777623206377</v>
+        <v>0.006448002532124519</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.301932105794549e-06</v>
+        <v>0.008641195483505726</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.004115285817533731</v>
+        <v>0.0009418356348760426</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.002378744538873434</v>
+        <v>0.002282649977132678</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001397771527990699</v>
+        <v>0.000316668301820755</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.002598942024633288</v>
+        <v>0.003979908768087626</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.005031512584537268</v>
+        <v>0.003116640029475093</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.00386090436950326</v>
+        <v>0.001180841936729848</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.003271425841376185</v>
+        <v>0.001893582753837109</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.007321298122406006</v>
+        <v>0.003837342606857419</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.002328216563910246</v>
+        <v>0.006426231004297733</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.002918198239058256</v>
+        <v>0.0005995168467052281</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.003671921323984861</v>
+        <v>0.001004384248517454</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.003883254481479526</v>
+        <v>0.0009365705191157758</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0007441203342750669</v>
+        <v>0.004585663322359324</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0002501764975022525</v>
+        <v>0.003041692543774843</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.001564993057399988</v>
+        <v>0.005827094428241253</v>
       </c>
       <c r="AS7" t="n">
-        <v>6.483224569819868e-05</v>
+        <v>0.003892227541655302</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.01732770912349224</v>
+        <v>0.002742420416325331</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.002782306866720319</v>
+        <v>0.03894216567277908</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.004658597521483898</v>
+        <v>0.003403008449822664</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.001673799706622958</v>
+        <v>0.00986798107624054</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.110136069357395e-05</v>
+        <v>0.00266549177467823</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.003386535216122866</v>
+        <v>0.001512656570412219</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.001868738792836666</v>
+        <v>0.0009813050273805857</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.004476542584598064</v>
+        <v>0.005650041624903679</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.001966665033251047</v>
+        <v>0.005460168700665236</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.01281292736530304</v>
+        <v>0.002578240586444736</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.003180966014042497</v>
+        <v>0.008677131496369839</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.000259306892985478</v>
+        <v>0.01014777459204197</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.001299049239605665</v>
+        <v>0.004952566232532263</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.005202454514801502</v>
+        <v>0.01649742759764194</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.005136091262102127</v>
+        <v>0.002721983473747969</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.004376648459583521</v>
+        <v>0.008706447668373585</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.01132145896553993</v>
+        <v>0.007952037267386913</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.001921216840855777</v>
+        <v>0.003379866713657975</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.004398743156343699</v>
+        <v>0.009628195315599442</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.003145914990454912</v>
+        <v>0.00251127639785409</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.001436354359611869</v>
+        <v>0.001727114780806005</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.004174586851149797</v>
+        <v>0.0003979401662945747</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.003904187586158514</v>
+        <v>0.0008360838983207941</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0005055672372691333</v>
+        <v>0.004654126241803169</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0007445698138326406</v>
+        <v>0.0001645480515435338</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0007845349609851837</v>
+        <v>0.002001279732212424</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.000937131408136338</v>
+        <v>0.003842451609671116</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.01386145502328873</v>
+        <v>0.002701190067455173</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.002666227519512177</v>
+        <v>0.02177071012556553</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.002772836713120341</v>
+        <v>0.003533062990754843</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.005285522434860468</v>
+        <v>0.004005481489002705</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.002504805568605661</v>
+        <v>0.0008779159979894757</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0001249397901119664</v>
+        <v>0.00413363054394722</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.002227572025731206</v>
+        <v>0.001335036940872669</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.006055103614926338</v>
+        <v>0.0006846684846095741</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0003612365981098264</v>
+        <v>0.004461027681827545</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.00792058277875185</v>
+        <v>0.001137042534537613</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.003026865189895034</v>
+        <v>0.009211726486682892</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0006189290434122086</v>
+        <v>0.001861920347437263</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.002851102966815233</v>
+        <v>0.005394595209509134</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.00160429859533906</v>
+        <v>0.002227443968877196</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.000143493918585591</v>
+        <v>0.001856132643297315</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.001878303824923933</v>
+        <v>0.001722266664728522</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.00163450906984508</v>
+        <v>0.0005274968571029603</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0004666416789405048</v>
+        <v>0.001142089604400098</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.003563750768080354</v>
+        <v>0.009210438467562199</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.003007533960044384</v>
+        <v>0.001773547031916678</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0003241870435886085</v>
+        <v>0.00116494600661099</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.002028165617957711</v>
+        <v>0.00797044113278389</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.006443573161959648</v>
+        <v>0.007747940719127655</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.003295081667602062</v>
+        <v>0.01197742391377687</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.005104538518935442</v>
+        <v>0.005910299252718687</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.005087364464998245</v>
+        <v>0.01269947551190853</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.000483902869746089</v>
+        <v>0.001662163762375712</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.00737167289480567</v>
+        <v>0.0005651077954098582</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.002555749611929059</v>
+        <v>0.01010839641094208</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.001029230188578367</v>
+        <v>0.003048750571906567</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.001740886364132166</v>
+        <v>0.007098172325640917</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0004291527438908815</v>
+        <v>0.002122316975146532</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0005684918141923845</v>
+        <v>0.003751489333808422</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.00128445599693805</v>
+        <v>0.00164801487699151</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0002615635457914323</v>
+        <v>0.0006702655809931457</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0002337258483748883</v>
+        <v>0.0002946688327938318</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0004583474947139621</v>
+        <v>0.0007918786141090095</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.009582540020346642</v>
+        <v>0.01293616741895676</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.005130965262651443</v>
+        <v>0.00324667152017355</v>
       </c>
       <c r="DH7" t="n">
-        <v>3.274911432527006e-05</v>
+        <v>0.009406132623553276</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.002542418660596013</v>
+        <v>0.01279637776315212</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.003663490759208798</v>
+        <v>0.005444927606731653</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.002050950890406966</v>
+        <v>0.004037292208522558</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0001243601291207597</v>
+        <v>0.004250914789736271</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0005364224198274314</v>
+        <v>0.002075540833175182</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0009017966804094613</v>
+        <v>0.001325411954894662</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.004885096102952957</v>
+        <v>0.007467271294444799</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0009314425406046212</v>
+        <v>0.005287093110382557</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0007344207260757685</v>
+        <v>0.001877925242297351</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.001522283768281341</v>
+        <v>0.005188635550439358</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.003362227464094758</v>
+        <v>0.001155511010438204</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.001791744376532733</v>
+        <v>4.627558519132435e-05</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.001682112109847367</v>
+        <v>0.0003616548492573202</v>
       </c>
       <c r="DV7" t="n">
-        <v>3.144872607663274e-06</v>
+        <v>0.002084215637296438</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.001069093472324312</v>
+        <v>0.002719692420214415</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.005482926033437252</v>
+        <v>0.002103519160300493</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.003046563593670726</v>
+        <v>0.007681943476200104</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0009776727529242635</v>
+        <v>0.003452577162533998</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0002546049072407186</v>
+        <v>0.004321776330471039</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0009895296534523368</v>
+        <v>0.002376864431425929</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.001764145446941257</v>
+        <v>0.0020978560205549</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.006225510966032743</v>
+        <v>0.00315876305103302</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.001233590766787529</v>
+        <v>0.000759661546908319</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.01058548595756292</v>
+        <v>0.0008951448835432529</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.006711184047162533</v>
+        <v>0.007614592090249062</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.001183283166028559</v>
+        <v>0.001245267107151449</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.004743852652609348</v>
+        <v>0.005320407915860415</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.001018349546939135</v>
+        <v>0.008165201172232628</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0004583717091009021</v>
+        <v>0.001068462617695332</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.001266861334443092</v>
+        <v>0.002687092870473862</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.004556623287498951</v>
+        <v>0.0008242647745646536</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.002409441396594048</v>
+        <v>0.001763866981491446</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.001792065682820976</v>
+        <v>0.000547159812413156</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.002560690743848681</v>
+        <v>0.006484607234597206</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.003925380297005177</v>
+        <v>0.006628984585404396</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.00369940372183919</v>
+        <v>0.006748104002326727</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.005274200811982155</v>
+        <v>0.009048381820321083</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.0006762425182387233</v>
+        <v>0.007874161936342716</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0034731007181108</v>
+        <v>0.003793165553361177</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.001077519846148789</v>
+        <v>0.0007472268771380186</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.001649130368605256</v>
+        <v>2.137225055776071e-05</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.007932421751320362</v>
+        <v>0.000497229106258601</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.001351761748082936</v>
+        <v>0.010606424883008</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.001390439458191395</v>
+        <v>0.001590294879861176</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.001839589327573776</v>
+        <v>0.006132340990006924</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0006097487639635801</v>
+        <v>0.002552476711571217</v>
       </c>
       <c r="FC7" t="n">
-        <v>6.775897782063112e-05</v>
+        <v>0.003564460435882211</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.001176234101876616</v>
+        <v>0.002650092821568251</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.001390062039718032</v>
+        <v>0.0008511857013218105</v>
       </c>
       <c r="FF7" t="n">
-        <v>1.288465864490718e-05</v>
+        <v>0.001235588802956045</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.006262464448809624</v>
+        <v>0.0006968802772462368</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.002908697817474604</v>
+        <v>0.003013442270457745</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.000615362951066345</v>
+        <v>0.001078612869605422</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.00605058204382658</v>
+        <v>0.0007569173467345536</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.003243227722123265</v>
+        <v>0.001077806227840483</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.001377947279252112</v>
+        <v>0.003052516374737024</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.001770538976415992</v>
+        <v>0.0009569799876771867</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0003221394144929945</v>
+        <v>0.0007955817272886634</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0006748922751285136</v>
+        <v>0.00333123654127121</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.00362844206392765</v>
+        <v>0.000712865381501615</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.004360875114798546</v>
+        <v>6.726953870384023e-05</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.003146952949464321</v>
+        <v>0.0013328354107216</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.006371499970555305</v>
+        <v>0.004359263926744461</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.001231413567438722</v>
+        <v>0.001654643099755049</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.002859419444575906</v>
+        <v>0.0001566557912155986</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.001024637604132295</v>
+        <v>0.002718937583267689</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.00178774306550622</v>
+        <v>0.0004765461198985577</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0008837147615849972</v>
+        <v>0.003665935480967164</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.002470757346600294</v>
+        <v>0.005207493435591459</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.005702496506273746</v>
+        <v>0.001846368541009724</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.001909000333398581</v>
+        <v>0.002370989881455898</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.009540032595396042</v>
+        <v>0.001863742247223854</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.001817248994484544</v>
+        <v>0.0062620067037642</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0005961786373518407</v>
+        <v>0.003395593725144863</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.00112841441296041</v>
+        <v>0.0129069397225976</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.002400639234110713</v>
+        <v>0.002347932429984212</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0001220006815856323</v>
+        <v>0.002165518002584577</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.06437290459871292</v>
+        <v>0.0009467892814427614</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002273534424602985</v>
+        <v>0.03386474773287773</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05828868225216866</v>
+        <v>0.0005235068965703249</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01827625371515751</v>
+        <v>0.01613142713904381</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0238511860370636</v>
+        <v>0.007358860224485397</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006798818241804838</v>
+        <v>0.02890066429972649</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0006181231001392007</v>
+        <v>0.002051356947049499</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01618282683193684</v>
+        <v>0.01161150354892015</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01262288074940443</v>
+        <v>0.001116631785407662</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06790782511234283</v>
+        <v>0.003368419129401445</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005574952811002731</v>
+        <v>0.02494616806507111</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06277193874120712</v>
+        <v>0.0008257883018814027</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009502816945314407</v>
+        <v>0.01954410597681999</v>
       </c>
       <c r="N8" t="n">
-        <v>0.009105229750275612</v>
+        <v>0.009461977519094944</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0008317061001434922</v>
+        <v>0.03065280988812447</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01003214716911316</v>
+        <v>0.0005235662101767957</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01627138443291187</v>
+        <v>0.004842276684939861</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01847102493047714</v>
+        <v>0.001104073831811547</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005523907486349344</v>
+        <v>0.004108157474547625</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01993964985013008</v>
+        <v>0.007826001383364201</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004359654616564512</v>
+        <v>0.0002947314933408052</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001944128423929214</v>
+        <v>0.003779294434934855</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01894594915211201</v>
+        <v>0.001632447238080204</v>
       </c>
       <c r="X8" t="n">
-        <v>0.004381174687296152</v>
+        <v>0.001929801655933261</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004109002184122801</v>
+        <v>0.003806379158049822</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01364167407155037</v>
+        <v>0.002638136968016624</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.004832718055695295</v>
+        <v>0.002066052053123713</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.002104704035446048</v>
+        <v>0.00670121842995286</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.003613349050283432</v>
+        <v>0.006620796862989664</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01593728922307491</v>
+        <v>0.0008875494240783155</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.002228227443993092</v>
+        <v>0.0007338945288211107</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01596258021891117</v>
+        <v>0.004557377658784389</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.006359066814184189</v>
+        <v>0.008722194470465183</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.007771005854010582</v>
+        <v>0.0032445655670017</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01600719057023525</v>
+        <v>6.602681241929531e-05</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.008293092250823975</v>
+        <v>0.004332737997174263</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.01684605702757835</v>
+        <v>0.0013597731012851</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.01243756338953972</v>
+        <v>0.004282827023416758</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.006264252588152885</v>
+        <v>0.001903653959743679</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.00721364188939333</v>
+        <v>0.002063388470560312</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.003461519256234169</v>
+        <v>0.006104969419538975</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.005220919847488403</v>
+        <v>0.007738684304058552</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0008876061765477061</v>
+        <v>0.001890481100417674</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.002006459981203079</v>
+        <v>0.001760246464982629</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.001341486349701881</v>
+        <v>0.002962854225188494</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.03179898858070374</v>
+        <v>0.00286371260881424</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.01524446718394756</v>
+        <v>0.0223008431494236</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.03220614045858383</v>
+        <v>0.002059363760054111</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.003393779275938869</v>
+        <v>0.001476232544519007</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.001687256502918899</v>
+        <v>0.0001452544238418341</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.01197934709489346</v>
+        <v>0.0209322776645422</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.01381139550358057</v>
+        <v>0.002181774005293846</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.00865621492266655</v>
+        <v>0.00504436157643795</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.009952371008694172</v>
+        <v>0.006148883141577244</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.009995161555707455</v>
+        <v>0.004100818186998367</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.004498146008700132</v>
+        <v>0.007021388970315456</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0183560885488987</v>
+        <v>0.006417206954210997</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.002767633646726608</v>
+        <v>0.007595024071633816</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.01390706561505795</v>
+        <v>0.01197756640613079</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.01075632590800524</v>
+        <v>0.008210652507841587</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.00481744296848774</v>
+        <v>0.001826842897571623</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.01223452296108007</v>
+        <v>0.006539464462548494</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.002561103086918592</v>
+        <v>0.004860143177211285</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.009437315165996552</v>
+        <v>9.883512393571436e-05</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.005472069140523672</v>
+        <v>0.001580446027219296</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01629363559186459</v>
+        <v>0.002467429963871837</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0003937087603844702</v>
+        <v>0.004171757493168116</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.01769451610743999</v>
+        <v>0.001246099593117833</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.008827372454106808</v>
+        <v>0.0004745200858451426</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.003104398725554347</v>
+        <v>0.00514746131375432</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.006399814039468765</v>
+        <v>0.003619607072323561</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.00203469954431057</v>
+        <v>0.002314295619726181</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.02912088111042976</v>
+        <v>0.002874167868867517</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.003950925543904305</v>
+        <v>0.01078655105084181</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.01277886517345905</v>
+        <v>0.002958533354103565</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.01238514948636293</v>
+        <v>0.001210719463415444</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.006958197336643934</v>
+        <v>0.004945914726704359</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0105308061465621</v>
+        <v>0.01143129914999008</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.002971840091049671</v>
+        <v>0.002320824190974236</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.009085911326110363</v>
+        <v>0.004075859673321247</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0003994686994701624</v>
+        <v>0.002230416750535369</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.01287945359945297</v>
+        <v>0.0004477684269659221</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.01093424670398235</v>
+        <v>0.006079759448766708</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.008811832405626774</v>
+        <v>0.002116275019943714</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.00253670010715723</v>
+        <v>0.002971755340695381</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.002729554194957018</v>
+        <v>0.001408998854458332</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.001310982159338892</v>
+        <v>0.003463379107415676</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0005328909028321505</v>
+        <v>0.001834273687563837</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.00447219330817461</v>
+        <v>0.001324929762631655</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.001215937780216336</v>
+        <v>0.0008810212602838874</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.004092961084097624</v>
+        <v>0.005476773716509342</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.006444004829972982</v>
+        <v>0.001805038307793438</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0008256798610091209</v>
+        <v>0.0004143262049183249</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.003021992510184646</v>
+        <v>0.007169747725129128</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.01122776512056589</v>
+        <v>0.005878661759197712</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.00175317469984293</v>
+        <v>0.0009862902807071805</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.007100149989128113</v>
+        <v>0.0009476577397435904</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.005165772512555122</v>
+        <v>0.007490112446248531</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.01443139743059874</v>
+        <v>0.004250676836818457</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.01052774209529161</v>
+        <v>3.949416714021936e-05</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.008770233951508999</v>
+        <v>0.005052943248301744</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01074093300849199</v>
+        <v>0.002989114727824926</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.001512481365352869</v>
+        <v>0.004234193824231625</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01022294629365206</v>
+        <v>0.0006465815822593868</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0005068344762548804</v>
+        <v>0.004472160711884499</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.001974379643797874</v>
+        <v>0.0006863863673061132</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.003356481669470668</v>
+        <v>0.003008037572726607</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.0008784291567280889</v>
+        <v>0.0009924683254212141</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.005586869083344936</v>
+        <v>0.004647429566830397</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.03381925821304321</v>
+        <v>0.004030854906886816</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.01336465869098902</v>
+        <v>0.002233545994386077</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.001657673856243491</v>
+        <v>0.0008086091838777065</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.01708538085222244</v>
+        <v>0.004095972515642643</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.001750752213411033</v>
+        <v>0.000231665326282382</v>
       </c>
       <c r="DK8" t="n">
-        <v>6.759702228009701e-05</v>
+        <v>0.007141318172216415</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.008492571301758289</v>
+        <v>0.01005426980555058</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.01299840025603771</v>
+        <v>0.002735164482146502</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.003933503292500973</v>
+        <v>0.002104221843183041</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.01295969448983669</v>
+        <v>0.000563342880923301</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.00716413976624608</v>
+        <v>0.004520193673670292</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0003584301739465445</v>
+        <v>0.00267790537327528</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.01040105707943439</v>
+        <v>0.002136470517143607</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.01055205054581165</v>
+        <v>0.001304563134908676</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.007247370667755604</v>
+        <v>0.003627121215686202</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.001844887621700764</v>
+        <v>0.0002205417258664966</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.00290151359513402</v>
+        <v>0.0004718152340501547</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.001463385298848152</v>
+        <v>0.0008472429472021759</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.001037035137414932</v>
+        <v>0.006033332087099552</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.008506071753799915</v>
+        <v>0.003484636312350631</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.005857551004737616</v>
+        <v>0.00368529511615634</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.009429804980754852</v>
+        <v>0.003590889740735292</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.003142708213999867</v>
+        <v>0.003339777234941721</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0006472084205597639</v>
+        <v>0.000212423678021878</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.002727044047787786</v>
+        <v>0.0005759161431342363</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.006824793294072151</v>
+        <v>0.001337783527560532</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.02033904939889908</v>
+        <v>0.0009760473622009158</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.007418202701956034</v>
+        <v>0.003863468067720532</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.009416039101779461</v>
+        <v>0.0003637054760474712</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0004387064254842699</v>
+        <v>0.002232682192698121</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0001145265996456146</v>
+        <v>0.000541781831998378</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.01048678439110518</v>
+        <v>0.001402585185132921</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.002239665482193232</v>
+        <v>0.006012204568833113</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.008916166611015797</v>
+        <v>0.0009934966219589114</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.004401621408760548</v>
+        <v>0.002298356965184212</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.003883413737639785</v>
+        <v>0.0008368442067876458</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.01748152077198029</v>
+        <v>0.0008338289335370064</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.009634781628847122</v>
+        <v>0.003451616270467639</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.005696493666619062</v>
+        <v>0.0004713901726063341</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.01147944666445255</v>
+        <v>0.001177419675514102</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.01297397632151842</v>
+        <v>0.00354140717536211</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0106773478910327</v>
+        <v>0.001357646426185966</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.002056941390037537</v>
+        <v>0.002845743205398321</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.007377319503575563</v>
+        <v>0.001155926147475839</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.01344580017030239</v>
+        <v>0.0003054560802411288</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.007671667262911797</v>
+        <v>0.005179792176932096</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01080752350389957</v>
+        <v>0.00151041301432997</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.002148482017219067</v>
+        <v>0.001631023129448295</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.004494160413742065</v>
+        <v>0.0007939672796055675</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.001742266933433712</v>
+        <v>0.004544752649962902</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0006819236441515386</v>
+        <v>0.000999101554043591</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.0056402119807899</v>
+        <v>0.001455408520996571</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.001939039793796837</v>
+        <v>0.0001683315495029092</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.01287330314517021</v>
+        <v>0.001569828717038035</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.01214234810322523</v>
+        <v>0.002251866506412625</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.002658241894096136</v>
+        <v>0.004054673481732607</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.01944733969867229</v>
+        <v>0.01021334063261747</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.00682991836220026</v>
+        <v>0.00345669942907989</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.01029714848846197</v>
+        <v>0.00710664689540863</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.001028888626024127</v>
+        <v>0.00204665120691061</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.006635603960603476</v>
+        <v>0.002647534478455782</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.006420882418751717</v>
+        <v>0.002626366214826703</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.009698549285531044</v>
+        <v>0.004270800855010748</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.03025058656930923</v>
+        <v>0.01347257848829031</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.002459519309923053</v>
+        <v>0.0006332994671538472</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.01336488500237465</v>
+        <v>0.005327006336301565</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.003222867613658309</v>
+        <v>0.001126233022660017</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.005867155734449625</v>
+        <v>0.001655665109865367</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.00107934616971761</v>
+        <v>0.005042379721999168</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.008538718335330486</v>
+        <v>0.003066655481234193</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.008314933627843857</v>
+        <v>0.006066081114113331</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.00380238052457571</v>
+        <v>0.0037393260281533</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.001909998245537281</v>
+        <v>0.0006317705265246332</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.001108043477870524</v>
+        <v>0.0002222564799012616</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.003077245084568858</v>
+        <v>0.004115466494113207</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.00746550690382719</v>
+        <v>0.007882362231612206</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.01874017529189587</v>
+        <v>0.006293771788477898</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.003891827538609505</v>
+        <v>0.007132601458579302</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.004636670462787151</v>
+        <v>0.001695864950306714</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0003811591595876962</v>
+        <v>0.0001965903793461621</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0002949724730569869</v>
+        <v>2.823511749738827e-06</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001449580013286322</v>
+        <v>0.001294009038247168</v>
       </c>
       <c r="C9" t="n">
-        <v>1.827034611778799e-05</v>
+        <v>0.0001696430845186114</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001290007639909163</v>
+        <v>0.0007144158589653671</v>
       </c>
       <c r="E9" t="n">
-        <v>5.80937230552081e-05</v>
+        <v>0.000254107842920348</v>
       </c>
       <c r="F9" t="n">
-        <v>2.509104888304137e-05</v>
+        <v>0.0001157313090516254</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000191398779861629</v>
+        <v>0.0001272389345103875</v>
       </c>
       <c r="H9" t="n">
-        <v>7.208980969153345e-05</v>
+        <v>0.0001164784262073226</v>
       </c>
       <c r="I9" t="n">
-        <v>4.598696705215843e-06</v>
+        <v>3.272085814387538e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002945697051472962</v>
+        <v>9.410698839928955e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>5.403347677201964e-05</v>
+        <v>0.001048690523020923</v>
       </c>
       <c r="L9" t="n">
-        <v>9.911426604958251e-05</v>
+        <v>6.601414497708902e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>3.326764272060245e-05</v>
+        <v>0.0006564785726368427</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0001005865342449397</v>
+        <v>0.0002431537432130426</v>
       </c>
       <c r="O9" t="n">
-        <v>8.538839756511152e-05</v>
+        <v>9.200576459988952e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0002330619608983397</v>
+        <v>8.053194324020296e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.667280543595552e-05</v>
+        <v>0.0001035984314512461</v>
       </c>
       <c r="R9" t="n">
-        <v>3.23216627293732e-05</v>
+        <v>3.900933006661944e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>2.791959559544921e-05</v>
+        <v>1.30291264213156e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.614882967260201e-05</v>
+        <v>0.0002040312101598829</v>
       </c>
       <c r="U9" t="n">
-        <v>1.172420616057934e-05</v>
+        <v>2.819319342961535e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>3.400141395104583e-07</v>
+        <v>6.930842937435955e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>5.373171006795019e-05</v>
+        <v>6.823678268119693e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>4.515505133895203e-05</v>
+        <v>0.0001104024195228703</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.794222331838682e-05</v>
+        <v>0.0001168590970337391</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.306048529339023e-05</v>
+        <v>3.368281250004657e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.139392204815522e-06</v>
+        <v>7.668139005545527e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.464028122834861e-05</v>
+        <v>0.0002325595996808261</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.2261696610949e-05</v>
+        <v>0.0001678404078120366</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.949984809674788e-05</v>
+        <v>2.449888233968522e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.191749419784173e-05</v>
+        <v>2.437034891045187e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.190447988454252e-05</v>
+        <v>1.60714698722586e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.982415026053786e-05</v>
+        <v>0.0001166494039352983</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.628067472367547e-06</v>
+        <v>5.7507015299052e-05</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.645452903176192e-05</v>
+        <v>4.994363916921429e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.372817652940284e-05</v>
+        <v>1.781484388629906e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.945570304291323e-05</v>
+        <v>4.556943895295262e-05</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.684151463152375e-06</v>
+        <v>0.0001627353194635361</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.294026126037352e-05</v>
+        <v>1.56921141751809e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.450126652955078e-05</v>
+        <v>2.230800782854203e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.543757652048953e-06</v>
+        <v>2.494998625479639e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>7.17034026820329e-06</v>
+        <v>0.0001326729397987947</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.932478764705593e-06</v>
+        <v>5.440519089461304e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.483749085513409e-06</v>
+        <v>9.448578930459917e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>8.098694706859533e-06</v>
+        <v>4.87097495351918e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.000111058761831373</v>
+        <v>0.0001424267829861492</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.392994691850618e-06</v>
+        <v>0.0008380503859370947</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.107757195015438e-05</v>
+        <v>3.259754521423019e-06</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.13896840554662e-05</v>
+        <v>0.0002347000117879361</v>
       </c>
       <c r="AX9" t="n">
-        <v>9.592737114871852e-06</v>
+        <v>5.018027513870038e-05</v>
       </c>
       <c r="AY9" t="n">
-        <v>8.281883492600173e-05</v>
+        <v>2.15624095289968e-06</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7.329054824367631e-06</v>
+        <v>2.330929419258609e-05</v>
       </c>
       <c r="BA9" t="n">
-        <v>3.499161539366469e-05</v>
+        <v>3.986848605563864e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.866108297894243e-05</v>
+        <v>2.270659751957282e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>8.86004272615537e-05</v>
+        <v>2.213775587733835e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.184619708918035e-05</v>
+        <v>0.0002678196469787508</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.022351807478117e-05</v>
+        <v>0.000209379883017391</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.757069498533383e-05</v>
+        <v>0.0001244705927092582</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.0001032407672028057</v>
+        <v>0.0003388983896002173</v>
       </c>
       <c r="BH9" t="n">
-        <v>5.507720925379544e-05</v>
+        <v>6.538602610817179e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0001118869840865955</v>
+        <v>0.0001426077215000987</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0001112817408284172</v>
+        <v>0.0001018608018057421</v>
       </c>
       <c r="BK9" t="n">
-        <v>3.501246737869224e-06</v>
+        <v>3.698725049616769e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>5.792127922177315e-05</v>
+        <v>0.0002419076627120376</v>
       </c>
       <c r="BM9" t="n">
-        <v>5.100278485770104e-06</v>
+        <v>3.408457996556535e-05</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.074230294761946e-05</v>
+        <v>1.130791406467324e-05</v>
       </c>
       <c r="BO9" t="n">
-        <v>5.105782292957883e-06</v>
+        <v>4.451924905879423e-05</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.366401465929812e-05</v>
+        <v>6.45188192720525e-05</v>
       </c>
       <c r="BQ9" t="n">
-        <v>3.088678931817412e-05</v>
+        <v>0.000100279925391078</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.152109962276882e-05</v>
+        <v>6.451357421610737e-06</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.004173464025371e-05</v>
+        <v>1.619517388462555e-05</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.822337253543083e-05</v>
+        <v>5.006757055525668e-05</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.0001022110664052889</v>
+        <v>0.0001104459952330217</v>
       </c>
       <c r="BV9" t="n">
-        <v>2.566284820204601e-05</v>
+        <v>0.0004191903281025589</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.702086956356652e-05</v>
+        <v>0.0001296212285524234</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0001509075373178348</v>
+        <v>0.0001077955021173693</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.685555616859347e-06</v>
+        <v>0.0001005595840979367</v>
       </c>
       <c r="BZ9" t="n">
-        <v>5.036440143157961e-06</v>
+        <v>5.817001147079282e-05</v>
       </c>
       <c r="CA9" t="n">
-        <v>2.406983912806027e-05</v>
+        <v>5.35818180651404e-05</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.375886313326191e-05</v>
+        <v>2.304514964635018e-05</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.441896347387228e-05</v>
+        <v>5.442387191578746e-05</v>
       </c>
       <c r="CD9" t="n">
-        <v>4.912444273941219e-05</v>
+        <v>4.379017627798021e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.810595055459999e-05</v>
+        <v>0.0001935509353643283</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.834202066675061e-06</v>
+        <v>3.451011070865206e-05</v>
       </c>
       <c r="CG9" t="n">
-        <v>8.397517376579344e-06</v>
+        <v>8.918663661461323e-05</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.797924778657034e-05</v>
+        <v>6.22543302597478e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>6.94597383699147e-06</v>
+        <v>1.89520615094807e-05</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2.593754470581189e-05</v>
+        <v>3.367767203599215e-05</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.973940470634261e-06</v>
+        <v>1.370492100249976e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>8.422848623013124e-06</v>
+        <v>3.761345942621119e-05</v>
       </c>
       <c r="CM9" t="n">
-        <v>2.134419082722161e-05</v>
+        <v>0.0002167884958907962</v>
       </c>
       <c r="CN9" t="n">
-        <v>2.533689621486701e-05</v>
+        <v>8.899295789888129e-05</v>
       </c>
       <c r="CO9" t="n">
-        <v>3.337345333420672e-07</v>
+        <v>4.100283331354149e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.190917257394176e-05</v>
+        <v>0.0002022646513069049</v>
       </c>
       <c r="CQ9" t="n">
-        <v>6.64165781927295e-07</v>
+        <v>0.0001644006260903552</v>
       </c>
       <c r="CR9" t="n">
-        <v>2.754056549747474e-05</v>
+        <v>0.0001924057578435168</v>
       </c>
       <c r="CS9" t="n">
-        <v>2.836096246028319e-05</v>
+        <v>0.0001029513150569983</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.420856915501645e-05</v>
+        <v>0.0002120906574418768</v>
       </c>
       <c r="CU9" t="n">
-        <v>3.077304427279159e-06</v>
+        <v>2.301640051882714e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>4.294899918022566e-05</v>
+        <v>2.600878360681236e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>4.964552863384597e-05</v>
+        <v>0.0001928527199197561</v>
       </c>
       <c r="CX9" t="n">
-        <v>6.036131253495114e-06</v>
+        <v>6.168787513161078e-05</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.25066742132185e-07</v>
+        <v>0.0001273997913813218</v>
       </c>
       <c r="CZ9" t="n">
-        <v>5.037604751123581e-07</v>
+        <v>5.741025961469859e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.220941067003878e-05</v>
+        <v>4.481668656808324e-05</v>
       </c>
       <c r="DB9" t="n">
-        <v>3.293633926659822e-05</v>
+        <v>2.561127621447667e-05</v>
       </c>
       <c r="DC9" t="n">
-        <v>4.970297140971525e-06</v>
+        <v>2.096701427944936e-05</v>
       </c>
       <c r="DD9" t="n">
-        <v>5.649291324516525e-06</v>
+        <v>1.659463669057004e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>6.536109140142798e-06</v>
+        <v>6.012302765157074e-05</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0001250383356818929</v>
+        <v>0.0002422200050204992</v>
       </c>
       <c r="DG9" t="n">
-        <v>5.280938785290346e-05</v>
+        <v>2.700873301364481e-05</v>
       </c>
       <c r="DH9" t="n">
-        <v>3.890056541422382e-05</v>
+        <v>0.0003152250137645751</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.000120107717521023</v>
+        <v>3.866215047310106e-05</v>
       </c>
       <c r="DJ9" t="n">
-        <v>3.753669807338156e-05</v>
+        <v>3.509073576424271e-05</v>
       </c>
       <c r="DK9" t="n">
-        <v>2.15783638850553e-05</v>
+        <v>0.0001053261948982254</v>
       </c>
       <c r="DL9" t="n">
-        <v>5.862079342477955e-05</v>
+        <v>2.677723750821315e-05</v>
       </c>
       <c r="DM9" t="n">
-        <v>8.046406946959905e-06</v>
+        <v>7.637085946043953e-05</v>
       </c>
       <c r="DN9" t="n">
-        <v>3.146459494018927e-05</v>
+        <v>7.989551522769034e-05</v>
       </c>
       <c r="DO9" t="n">
-        <v>5.840831727255136e-05</v>
+        <v>0.0001085117328329943</v>
       </c>
       <c r="DP9" t="n">
-        <v>2.789644713629968e-05</v>
+        <v>0.0001168840753962286</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.662717659201007e-05</v>
+        <v>1.717729719530325e-05</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.114622227760265e-05</v>
+        <v>0.0001715574180707335</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.151799006038345e-05</v>
+        <v>6.036453123670071e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.567891013110057e-05</v>
+        <v>6.836123702669283e-06</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.53780740674847e-06</v>
+        <v>3.001902041432913e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.302750570175704e-05</v>
+        <v>2.929305810539518e-05</v>
       </c>
       <c r="DW9" t="n">
-        <v>3.206195833627135e-05</v>
+        <v>1.990625969483517e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>4.477522088564001e-05</v>
+        <v>3.076062421314418e-05</v>
       </c>
       <c r="DY9" t="n">
-        <v>4.215539956931025e-05</v>
+        <v>9.898962889565155e-05</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.281227287108777e-05</v>
+        <v>5.524291191250086e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>4.027727482025512e-05</v>
+        <v>0.0001556335482746363</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.765093293215614e-05</v>
+        <v>7.770999945932999e-05</v>
       </c>
       <c r="EC9" t="n">
-        <v>4.279614586266689e-05</v>
+        <v>2.582328670541756e-05</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.849650107033085e-05</v>
+        <v>2.924941782112001e-06</v>
       </c>
       <c r="EE9" t="n">
-        <v>2.740232503128937e-06</v>
+        <v>1.065186916093808e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>9.70992841757834e-05</v>
+        <v>6.851598300272599e-06</v>
       </c>
       <c r="EG9" t="n">
-        <v>5.246228829491884e-05</v>
+        <v>0.0001633612992009148</v>
       </c>
       <c r="EH9" t="n">
-        <v>7.058367827994516e-07</v>
+        <v>4.829297540709376e-05</v>
       </c>
       <c r="EI9" t="n">
-        <v>3.203389860573225e-05</v>
+        <v>0.0001379645837005228</v>
       </c>
       <c r="EJ9" t="n">
-        <v>7.416892913170159e-06</v>
+        <v>0.0001008797116810456</v>
       </c>
       <c r="EK9" t="n">
-        <v>8.834236723487265e-06</v>
+        <v>7.937008194858208e-05</v>
       </c>
       <c r="EL9" t="n">
-        <v>5.340859388525132e-06</v>
+        <v>4.598794839694165e-05</v>
       </c>
       <c r="EM9" t="n">
-        <v>6.738993761246093e-06</v>
+        <v>1.290502223127987e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.043578413373325e-05</v>
+        <v>4.299995453038719e-06</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.096996129490435e-07</v>
+        <v>4.805369098903611e-05</v>
       </c>
       <c r="EP9" t="n">
-        <v>8.340631757164374e-05</v>
+        <v>0.0001638709509279579</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1.731426709739026e-05</v>
+        <v>0.0001462561922380701</v>
       </c>
       <c r="ER9" t="n">
-        <v>2.303643304912839e-05</v>
+        <v>5.920120383962058e-05</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.770523497019894e-05</v>
+        <v>4.262166112312116e-05</v>
       </c>
       <c r="ET9" t="n">
-        <v>6.281762125581736e-06</v>
+        <v>7.895428279880434e-05</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.091731519409223e-05</v>
+        <v>6.939255399629474e-05</v>
       </c>
       <c r="EV9" t="n">
-        <v>3.140655098832212e-05</v>
+        <v>5.971291830064729e-05</v>
       </c>
       <c r="EW9" t="n">
-        <v>6.377628324116813e-06</v>
+        <v>1.797905042622006e-06</v>
       </c>
       <c r="EX9" t="n">
-        <v>4.657265162677504e-05</v>
+        <v>2.424825652269647e-06</v>
       </c>
       <c r="EY9" t="n">
-        <v>3.679199653561227e-05</v>
+        <v>0.0002082235441775993</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.650572994549293e-05</v>
+        <v>1.48757417264278e-05</v>
       </c>
       <c r="FA9" t="n">
-        <v>1.450303443562007e-05</v>
+        <v>0.0001075558830052614</v>
       </c>
       <c r="FB9" t="n">
-        <v>1.878314833447803e-06</v>
+        <v>5.584019891102798e-05</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.049452839652076e-05</v>
+        <v>6.001349902362563e-05</v>
       </c>
       <c r="FD9" t="n">
-        <v>2.195726301579271e-05</v>
+        <v>4.23825295001734e-05</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.037611764331814e-05</v>
+        <v>1.887572580017149e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>3.703025868162513e-06</v>
+        <v>3.883754470734857e-05</v>
       </c>
       <c r="FG9" t="n">
-        <v>5.120996866025962e-05</v>
+        <v>1.54512636072468e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>3.311913314973935e-05</v>
+        <v>7.852667476981878e-05</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.335556044068653e-05</v>
+        <v>7.164576345530804e-06</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.152843105955981e-05</v>
+        <v>9.125861106440425e-05</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.155798145191511e-06</v>
+        <v>0.0001233065850101411</v>
       </c>
       <c r="FL9" t="n">
-        <v>2.245832365588285e-05</v>
+        <v>0.0001122519024647772</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.577949948725291e-05</v>
+        <v>1.319731654803036e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>3.748312155948952e-05</v>
+        <v>8.072922355495393e-06</v>
       </c>
       <c r="FO9" t="n">
-        <v>2.231148755527101e-06</v>
+        <v>6.81920355418697e-05</v>
       </c>
       <c r="FP9" t="n">
-        <v>2.435598435113207e-05</v>
+        <v>5.188496288610622e-06</v>
       </c>
       <c r="FQ9" t="n">
-        <v>6.277346983551979e-05</v>
+        <v>5.417972352006473e-05</v>
       </c>
       <c r="FR9" t="n">
-        <v>5.057356247561984e-05</v>
+        <v>8.538167458027601e-05</v>
       </c>
       <c r="FS9" t="n">
-        <v>4.583559712045826e-05</v>
+        <v>2.73038986051688e-05</v>
       </c>
       <c r="FT9" t="n">
-        <v>4.306167829781771e-05</v>
+        <v>3.419904896873049e-05</v>
       </c>
       <c r="FU9" t="n">
-        <v>2.173547545680776e-05</v>
+        <v>1.493935997132212e-05</v>
       </c>
       <c r="FV9" t="n">
-        <v>2.998795025632717e-05</v>
+        <v>3.337678572279401e-05</v>
       </c>
       <c r="FW9" t="n">
-        <v>3.625664248829708e-05</v>
+        <v>1.132966826844495e-05</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.296999698752188e-07</v>
+        <v>7.153004116844386e-05</v>
       </c>
       <c r="FY9" t="n">
-        <v>7.895640737842768e-05</v>
+        <v>0.0001501408260082826</v>
       </c>
       <c r="FZ9" t="n">
-        <v>1.348957630398218e-05</v>
+        <v>6.519682938233018e-05</v>
       </c>
       <c r="GA9" t="n">
-        <v>2.39103683270514e-05</v>
+        <v>1.435969807062065e-05</v>
       </c>
       <c r="GB9" t="n">
-        <v>5.314506415743381e-05</v>
+        <v>2.772245352389291e-05</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.407151962164789e-05</v>
+        <v>5.509831680683419e-05</v>
       </c>
       <c r="GD9" t="n">
-        <v>8.771807188168168e-06</v>
+        <v>6.986921653151512e-05</v>
       </c>
       <c r="GE9" t="n">
-        <v>1.067317407432711e-05</v>
+        <v>0.0002105535386363044</v>
       </c>
       <c r="GF9" t="n">
-        <v>5.581747245742008e-06</v>
+        <v>3.060804738197476e-05</v>
       </c>
       <c r="GG9" t="n">
-        <v>2.86969225271605e-05</v>
+        <v>2.87811562884599e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.66350377589697e-06</v>
+        <v>0.0138644315302372</v>
       </c>
       <c r="B10" t="n">
-        <v>2.03189229068812e-05</v>
+        <v>0.01093061547726393</v>
       </c>
       <c r="C10" t="n">
-        <v>8.116785465972498e-06</v>
+        <v>0.01849553734064102</v>
       </c>
       <c r="D10" t="n">
-        <v>3.701740070027881e-06</v>
+        <v>0.0005236305296421051</v>
       </c>
       <c r="E10" t="n">
-        <v>1.226551103172824e-05</v>
+        <v>0.005120988935232162</v>
       </c>
       <c r="F10" t="n">
-        <v>1.93353957911313e-06</v>
+        <v>0.008609360083937645</v>
       </c>
       <c r="G10" t="n">
-        <v>9.947052603820339e-08</v>
+        <v>0.001784478081390262</v>
       </c>
       <c r="H10" t="n">
-        <v>5.591019771600259e-07</v>
+        <v>0.001818226650357246</v>
       </c>
       <c r="I10" t="n">
-        <v>8.130063520184194e-07</v>
+        <v>0.002575455233454704</v>
       </c>
       <c r="J10" t="n">
-        <v>6.027053132129367e-07</v>
+        <v>0.005371254868805408</v>
       </c>
       <c r="K10" t="n">
-        <v>1.564783087815158e-05</v>
+        <v>0.003698237938806415</v>
       </c>
       <c r="L10" t="n">
-        <v>3.45398802892305e-06</v>
+        <v>0.01448933500796556</v>
       </c>
       <c r="M10" t="n">
-        <v>3.127303898509126e-06</v>
+        <v>0.005909938365221024</v>
       </c>
       <c r="N10" t="n">
-        <v>1.180043182102963e-05</v>
+        <v>0.008441772311925888</v>
       </c>
       <c r="O10" t="n">
-        <v>1.070686494131223e-06</v>
+        <v>0.001907317317090929</v>
       </c>
       <c r="P10" t="n">
-        <v>2.283192316099303e-06</v>
+        <v>0.001475548837333918</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.805643816827796e-06</v>
+        <v>0.003590407781302929</v>
       </c>
       <c r="R10" t="n">
-        <v>1.617212092241971e-06</v>
+        <v>0.009582396596670151</v>
       </c>
       <c r="S10" t="n">
-        <v>4.796351618097106e-07</v>
+        <v>0.005079973489046097</v>
       </c>
       <c r="T10" t="n">
-        <v>4.646904017135967e-06</v>
+        <v>0.00584515742957592</v>
       </c>
       <c r="U10" t="n">
-        <v>3.265596660639858e-06</v>
+        <v>0.007891510613262653</v>
       </c>
       <c r="V10" t="n">
-        <v>2.062306748484843e-06</v>
+        <v>0.001676679588854313</v>
       </c>
       <c r="W10" t="n">
-        <v>2.735838279477321e-06</v>
+        <v>0.000414228648878634</v>
       </c>
       <c r="X10" t="n">
-        <v>1.811170022847364e-07</v>
+        <v>0.0004865064984187484</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.787855906826735e-07</v>
+        <v>0.0007910989224910736</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.928123310790397e-06</v>
+        <v>0.000544935290236026</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.037920906645013e-07</v>
+        <v>0.001320086303167045</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.028005158332235e-06</v>
+        <v>0.001374553423374891</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.843355898425216e-06</v>
+        <v>0.001263990066945553</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.214620738210215e-06</v>
+        <v>0.002564586699008942</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.846165787355858e-06</v>
+        <v>0.0007690668571740389</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.922490921264398e-06</v>
+        <v>0.00155834446195513</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.357041068989929e-07</v>
+        <v>0.003864492755383253</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.753016753511474e-07</v>
+        <v>0.001099811168387532</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.602481916052056e-06</v>
+        <v>0.0004527157871052623</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.277267299177765e-07</v>
+        <v>0.003796444507315755</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.093909759219969e-06</v>
+        <v>0.001176011515781283</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.147637461457634e-06</v>
+        <v>0.006606587208807468</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.151504986613872e-06</v>
+        <v>0.001822094665840268</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.571614802742261e-07</v>
+        <v>0.001478726277127862</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.019187377300113e-06</v>
+        <v>0.003859356744214892</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.744363203215471e-06</v>
+        <v>0.00561307230964303</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.358799067929795e-06</v>
+        <v>0.002111619105562568</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.463149487790361e-06</v>
+        <v>4.120159428566694e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>6.888782309033559e-07</v>
+        <v>0.001361869741231203</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.897477543228888e-06</v>
+        <v>0.01066760905086994</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.013410474115517e-05</v>
+        <v>0.002012796932831407</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.391113642057462e-06</v>
+        <v>0.01235629245638847</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.502104265062371e-08</v>
+        <v>0.0005426583811640739</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.016351678932551e-06</v>
+        <v>0.009810573421418667</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.051523781825381e-06</v>
+        <v>0.0008750061970204115</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3.376055246917531e-06</v>
+        <v>0.0007417947053909302</v>
       </c>
       <c r="BA10" t="n">
-        <v>3.297061084595043e-06</v>
+        <v>0.003540629986673594</v>
       </c>
       <c r="BB10" t="n">
-        <v>3.668190402095206e-06</v>
+        <v>0.008188573643565178</v>
       </c>
       <c r="BC10" t="n">
-        <v>2.801636128424434e-06</v>
+        <v>0.005459965206682682</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.917108986366657e-06</v>
+        <v>0.01249944977462292</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.772504674590891e-06</v>
+        <v>0.0006677123019471765</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.404622819085489e-06</v>
+        <v>0.00471903569996357</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.575453663666849e-07</v>
+        <v>0.004803315736353397</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.711043634917587e-06</v>
+        <v>0.01649334840476513</v>
       </c>
       <c r="BI10" t="n">
-        <v>3.505353788568755e-06</v>
+        <v>0.002545913448557258</v>
       </c>
       <c r="BJ10" t="n">
-        <v>4.473549324757187e-06</v>
+        <v>0.005292655900120735</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.999371417899965e-06</v>
+        <v>0.008426670916378498</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.269196218345314e-06</v>
+        <v>0.002181027317419648</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.976065616167034e-07</v>
+        <v>0.001783492509275675</v>
       </c>
       <c r="BN10" t="n">
-        <v>3.552874204615364e-06</v>
+        <v>0.004660539329051971</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.047370233209222e-06</v>
+        <v>0.003913948312401772</v>
       </c>
       <c r="BP10" t="n">
-        <v>4.270286353857955e-06</v>
+        <v>0.001407484291121364</v>
       </c>
       <c r="BQ10" t="n">
-        <v>5.892282388231251e-06</v>
+        <v>0.003942161798477173</v>
       </c>
       <c r="BR10" t="n">
-        <v>3.700644128912245e-06</v>
+        <v>0.001278503565117717</v>
       </c>
       <c r="BS10" t="n">
-        <v>4.449348409707454e-07</v>
+        <v>0.001957529922947288</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.097627318813466e-06</v>
+        <v>0.004012801684439182</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.868703066065791e-06</v>
+        <v>0.003949792124330997</v>
       </c>
       <c r="BV10" t="n">
-        <v>5.873818736290559e-06</v>
+        <v>0.004558630753308535</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.143945948773762e-06</v>
+        <v>0.004415581002831459</v>
       </c>
       <c r="BX10" t="n">
-        <v>8.778773690210073e-07</v>
+        <v>0.0005191832315176725</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.701574885577429e-06</v>
+        <v>0.007145845796912909</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2.184680170103093e-06</v>
+        <v>0.003466067835688591</v>
       </c>
       <c r="CA10" t="n">
-        <v>3.606744030548725e-06</v>
+        <v>0.000791923375800252</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.176154455606593e-06</v>
+        <v>0.003071374259889126</v>
       </c>
       <c r="CC10" t="n">
-        <v>1.401876659201662e-08</v>
+        <v>0.008307399228215218</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.254764129043906e-06</v>
+        <v>0.00254401215352118</v>
       </c>
       <c r="CE10" t="n">
-        <v>4.541139787761495e-06</v>
+        <v>0.001952922437340021</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.907879434133065e-06</v>
+        <v>0.002766101388260722</v>
       </c>
       <c r="CG10" t="n">
-        <v>2.34251672281971e-07</v>
+        <v>0.002016701269894838</v>
       </c>
       <c r="CH10" t="n">
-        <v>3.402266429475276e-06</v>
+        <v>0.0004093494790140539</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.880054128378106e-06</v>
+        <v>0.0004208157770335674</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1.872176198958186e-06</v>
+        <v>0.0005416945787146688</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.103310947632053e-08</v>
+        <v>0.00126274861395359</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.250108709882625e-07</v>
+        <v>0.0003250458976253867</v>
       </c>
       <c r="CM10" t="n">
-        <v>2.766810780485685e-09</v>
+        <v>0.001832805923186243</v>
       </c>
       <c r="CN10" t="n">
-        <v>8.168793783625006e-07</v>
+        <v>0.0004748769570142031</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.170589257526444e-06</v>
+        <v>0.002386778127402067</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.050030959959258e-06</v>
+        <v>0.002336540259420872</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2.110275090672076e-06</v>
+        <v>0.008416206575930119</v>
       </c>
       <c r="CR10" t="n">
-        <v>6.56996235193219e-07</v>
+        <v>0.001050022430717945</v>
       </c>
       <c r="CS10" t="n">
-        <v>3.446044502197765e-06</v>
+        <v>0.004052384290844202</v>
       </c>
       <c r="CT10" t="n">
-        <v>3.293834652140504e-06</v>
+        <v>0.0008914847276173532</v>
       </c>
       <c r="CU10" t="n">
-        <v>2.9994694727975e-08</v>
+        <v>0.003268011612817645</v>
       </c>
       <c r="CV10" t="n">
-        <v>7.058997084641305e-07</v>
+        <v>0.001112385652959347</v>
       </c>
       <c r="CW10" t="n">
-        <v>4.455400357983308e-06</v>
+        <v>0.00309548806399107</v>
       </c>
       <c r="CX10" t="n">
-        <v>3.40008818966453e-06</v>
+        <v>0.002766133984550834</v>
       </c>
       <c r="CY10" t="n">
-        <v>7.710144700467936e-07</v>
+        <v>0.001724753179587424</v>
       </c>
       <c r="CZ10" t="n">
-        <v>3.431940513110021e-06</v>
+        <v>0.0001881196658359841</v>
       </c>
       <c r="DA10" t="n">
-        <v>9.802712384043843e-07</v>
+        <v>3.028164064744487e-05</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.802446149667958e-06</v>
+        <v>0.0004116234485991299</v>
       </c>
       <c r="DC10" t="n">
-        <v>2.624347246182879e-07</v>
+        <v>0.000255515769822523</v>
       </c>
       <c r="DD10" t="n">
-        <v>2.613874414691963e-07</v>
+        <v>0.0005393665051087737</v>
       </c>
       <c r="DE10" t="n">
-        <v>5.849682111147558e-06</v>
+        <v>0.001207216526381671</v>
       </c>
       <c r="DF10" t="n">
-        <v>2.812402726704022e-06</v>
+        <v>0.001342523377388716</v>
       </c>
       <c r="DG10" t="n">
-        <v>4.57670830655843e-06</v>
+        <v>0.01645747385919094</v>
       </c>
       <c r="DH10" t="n">
-        <v>2.127359493897529e-06</v>
+        <v>0.004729975946247578</v>
       </c>
       <c r="DI10" t="n">
-        <v>4.121860001760069e-06</v>
+        <v>0.001636883825995028</v>
       </c>
       <c r="DJ10" t="n">
-        <v>2.608093836897751e-06</v>
+        <v>0.001581502379849553</v>
       </c>
       <c r="DK10" t="n">
-        <v>2.339520506211556e-07</v>
+        <v>0.002096822950989008</v>
       </c>
       <c r="DL10" t="n">
-        <v>7.429609922837699e-07</v>
+        <v>0.001367412856779993</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.849995783231861e-06</v>
+        <v>0.004575453698635101</v>
       </c>
       <c r="DN10" t="n">
-        <v>2.436714794384898e-07</v>
+        <v>0.0009429606143385172</v>
       </c>
       <c r="DO10" t="n">
-        <v>1.540667312838195e-06</v>
+        <v>0.009668684564530849</v>
       </c>
       <c r="DP10" t="n">
-        <v>4.304111826058943e-06</v>
+        <v>0.001270174630917609</v>
       </c>
       <c r="DQ10" t="n">
-        <v>2.457877599226777e-07</v>
+        <v>0.002471492392942309</v>
       </c>
       <c r="DR10" t="n">
-        <v>2.312920059921453e-06</v>
+        <v>0.001426584902219474</v>
       </c>
       <c r="DS10" t="n">
-        <v>5.291002480589668e-08</v>
+        <v>0.000160996220074594</v>
       </c>
       <c r="DT10" t="n">
-        <v>7.064625151542714e-07</v>
+        <v>0.001423719106242061</v>
       </c>
       <c r="DU10" t="n">
-        <v>2.567853243817808e-06</v>
+        <v>0.00532968807965517</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.398862764290243e-06</v>
+        <v>0.006777054164558649</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.521022452128818e-06</v>
+        <v>0.0006217446061782539</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.297206722483679e-06</v>
+        <v>0.0002872089971788228</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.437067567167105e-07</v>
+        <v>0.001295826630666852</v>
       </c>
       <c r="DZ10" t="n">
-        <v>4.421117978381517e-07</v>
+        <v>0.0002853765618056059</v>
       </c>
       <c r="EA10" t="n">
-        <v>2.769717866613064e-06</v>
+        <v>0.006693730130791664</v>
       </c>
       <c r="EB10" t="n">
-        <v>1.255647816833516e-06</v>
+        <v>0.004460523370653391</v>
       </c>
       <c r="EC10" t="n">
-        <v>9.358687975691282e-07</v>
+        <v>0.001087391516193748</v>
       </c>
       <c r="ED10" t="n">
-        <v>3.635562961790129e-06</v>
+        <v>0.002775208558887243</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.035846935337759e-06</v>
+        <v>0.00372658739797771</v>
       </c>
       <c r="EF10" t="n">
-        <v>9.91407546280243e-07</v>
+        <v>0.0001967585412785411</v>
       </c>
       <c r="EG10" t="n">
-        <v>5.480061190610286e-06</v>
+        <v>0.007812513038516045</v>
       </c>
       <c r="EH10" t="n">
-        <v>4.405836989462841e-06</v>
+        <v>0.007111572660505772</v>
       </c>
       <c r="EI10" t="n">
-        <v>3.067205852858024e-06</v>
+        <v>0.001080326153896749</v>
       </c>
       <c r="EJ10" t="n">
-        <v>3.349505277583376e-06</v>
+        <v>0.001695071579888463</v>
       </c>
       <c r="EK10" t="n">
-        <v>2.386781034147134e-06</v>
+        <v>0.004011932760477066</v>
       </c>
       <c r="EL10" t="n">
-        <v>8.687569561516284e-07</v>
+        <v>0.001525531290099025</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.246475108018785e-06</v>
+        <v>0.0004251469799783081</v>
       </c>
       <c r="EN10" t="n">
-        <v>2.520464477129281e-06</v>
+        <v>0.003528696484863758</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.802227302505344e-06</v>
+        <v>0.003121501533314586</v>
       </c>
       <c r="EP10" t="n">
-        <v>2.143621259165229e-06</v>
+        <v>0.001528475666418672</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1.535538132202419e-07</v>
+        <v>0.002157868351787329</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.933313342306064e-06</v>
+        <v>0.001138345338404179</v>
       </c>
       <c r="ES10" t="n">
-        <v>5.075741000837297e-07</v>
+        <v>0.009923339821398258</v>
       </c>
       <c r="ET10" t="n">
-        <v>2.576558983946597e-07</v>
+        <v>0.0001841349294409156</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.774832753653754e-06</v>
+        <v>0.0006638499326072633</v>
       </c>
       <c r="EV10" t="n">
-        <v>1.102163992072747e-06</v>
+        <v>0.0005219315644353628</v>
       </c>
       <c r="EW10" t="n">
-        <v>9.237830909114564e-07</v>
+        <v>0.00893146637827158</v>
       </c>
       <c r="EX10" t="n">
-        <v>1.352968070023053e-06</v>
+        <v>0.0004591819597408175</v>
       </c>
       <c r="EY10" t="n">
-        <v>3.773155413000495e-06</v>
+        <v>0.0009209911804646254</v>
       </c>
       <c r="EZ10" t="n">
-        <v>2.934810709120939e-06</v>
+        <v>0.002567592542618513</v>
       </c>
       <c r="FA10" t="n">
-        <v>7.769534136059519e-07</v>
+        <v>0.001361667877063155</v>
       </c>
       <c r="FB10" t="n">
-        <v>3.4563865938253e-06</v>
+        <v>0.0008175999391824007</v>
       </c>
       <c r="FC10" t="n">
-        <v>1.167165123661107e-06</v>
+        <v>0.001712505822069943</v>
       </c>
       <c r="FD10" t="n">
-        <v>1.797596496544429e-06</v>
+        <v>9.146367665380239e-05</v>
       </c>
       <c r="FE10" t="n">
-        <v>3.960061576435692e-07</v>
+        <v>0.001056240755133331</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.971361172081743e-07</v>
+        <v>0.000723332108464092</v>
       </c>
       <c r="FG10" t="n">
-        <v>1.355083554699377e-06</v>
+        <v>0.003092982340604067</v>
       </c>
       <c r="FH10" t="n">
-        <v>2.484845481376396e-06</v>
+        <v>0.002845217473804951</v>
       </c>
       <c r="FI10" t="n">
-        <v>2.121338184224442e-06</v>
+        <v>0.001009819330647588</v>
       </c>
       <c r="FJ10" t="n">
-        <v>2.218655481556198e-08</v>
+        <v>0.002184812445193529</v>
       </c>
       <c r="FK10" t="n">
-        <v>3.215854462723655e-07</v>
+        <v>0.003251979826018214</v>
       </c>
       <c r="FL10" t="n">
-        <v>2.657141919826245e-07</v>
+        <v>0.00118819740600884</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.980348997676629e-06</v>
+        <v>0.000118750729598105</v>
       </c>
       <c r="FN10" t="n">
-        <v>8.378201528103091e-07</v>
+        <v>0.003912627231329679</v>
       </c>
       <c r="FO10" t="n">
-        <v>4.339701263234019e-06</v>
+        <v>0.0001104133552871644</v>
       </c>
       <c r="FP10" t="n">
-        <v>3.738069267456012e-07</v>
+        <v>0.009156115353107452</v>
       </c>
       <c r="FQ10" t="n">
-        <v>1.870089363364968e-07</v>
+        <v>0.0005652143154293299</v>
       </c>
       <c r="FR10" t="n">
-        <v>3.32089052790252e-06</v>
+        <v>0.002932254690676928</v>
       </c>
       <c r="FS10" t="n">
-        <v>7.030025699350517e-07</v>
+        <v>0.003913824912160635</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.021473167384102e-06</v>
+        <v>0.003637770190834999</v>
       </c>
       <c r="FU10" t="n">
-        <v>5.297231837175786e-06</v>
+        <v>0.0009204982779920101</v>
       </c>
       <c r="FV10" t="n">
-        <v>6.687183713438571e-07</v>
+        <v>0.002866326365619898</v>
       </c>
       <c r="FW10" t="n">
-        <v>6.840096489213465e-07</v>
+        <v>0.00708062993362546</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.56734506617795e-06</v>
+        <v>0.0007099983049556613</v>
       </c>
       <c r="FY10" t="n">
-        <v>4.245796390023315e-06</v>
+        <v>0.001369195990264416</v>
       </c>
       <c r="FZ10" t="n">
-        <v>3.131436869807658e-07</v>
+        <v>0.001914629363454878</v>
       </c>
       <c r="GA10" t="n">
-        <v>3.33983280143002e-06</v>
+        <v>0.004021221771836281</v>
       </c>
       <c r="GB10" t="n">
-        <v>3.379309418960474e-06</v>
+        <v>0.002759690862149</v>
       </c>
       <c r="GC10" t="n">
-        <v>2.068677531497087e-06</v>
+        <v>0.001400674460455775</v>
       </c>
       <c r="GD10" t="n">
-        <v>3.164473810102209e-06</v>
+        <v>0.003678097622469068</v>
       </c>
       <c r="GE10" t="n">
-        <v>2.275246743010939e-06</v>
+        <v>7.891387213021517e-05</v>
       </c>
       <c r="GF10" t="n">
-        <v>5.570844905378181e-07</v>
+        <v>0.003682574722915888</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.389881560953654e-07</v>
+        <v>0.001837321789935231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01738932728767395</v>
+        <v>0.0003576758317649364</v>
       </c>
       <c r="B11" t="n">
-        <v>0.142177626490593</v>
+        <v>0.004413066431879997</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02279527485370636</v>
+        <v>0.0003899218572769314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02289525419473648</v>
+        <v>0.002659781370311975</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01419349014759064</v>
+        <v>0.0003751817275770009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08085593581199646</v>
+        <v>0.003832216141745448</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03391218930482864</v>
+        <v>0.0003837634285446256</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0249443557113409</v>
+        <v>0.001367612509056926</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008924579247832298</v>
+        <v>0.000260117813013494</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001953334081918001</v>
+        <v>0.0009549490641802549</v>
       </c>
       <c r="K11" t="n">
-        <v>0.133591502904892</v>
+        <v>0.003894921857863665</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005900207906961441</v>
+        <v>2.449662133585662e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009073961526155472</v>
+        <v>0.002255227882415056</v>
       </c>
       <c r="N11" t="n">
-        <v>0.008129989728331566</v>
+        <v>0.0001303300814470276</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0913856029510498</v>
+        <v>0.003845914732664824</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01332993432879448</v>
+        <v>0.0001954972249222919</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02394134178757668</v>
+        <v>0.0005252542323432863</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02650795504450798</v>
+        <v>0.0001388409582432359</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004992629401385784</v>
+        <v>0.0002536092360969633</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0003590690903365612</v>
+        <v>0.0005913292989134789</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003241382539272308</v>
+        <v>0.0001115080958697945</v>
       </c>
       <c r="V11" t="n">
-        <v>0.008807621896266937</v>
+        <v>0.0003508969384711236</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02875872701406479</v>
+        <v>1.94684362213593e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01443371083587408</v>
+        <v>1.194518335978501e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.002757487120106816</v>
+        <v>0.0004588227020576596</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02564859949052334</v>
+        <v>0.0003846182080451399</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02199431136250496</v>
+        <v>0.0003155224549118429</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0235019139945507</v>
+        <v>0.000150715553900227</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.02601464092731476</v>
+        <v>0.0005611689412035048</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.003291440429165959</v>
+        <v>2.113325354002882e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01208950020372868</v>
+        <v>3.022266901098192e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.002957223914563656</v>
+        <v>0.0001088500575860962</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01701599545776844</v>
+        <v>0.0002385048719588667</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01074454095214605</v>
+        <v>0.0003852841909974813</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.004751757252961397</v>
+        <v>0.0003723437548615038</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.02435196191072464</v>
+        <v>1.765847264323384e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.003970067482441664</v>
+        <v>0.0003830144996754825</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.01400095969438553</v>
+        <v>0.0006345284637063742</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.005283907055854797</v>
+        <v>2.729901461862028e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02074346132576466</v>
+        <v>0.0003172623110003769</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0004742038436233997</v>
+        <v>0.0004035402380395681</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.02266220189630985</v>
+        <v>0.000829485768917948</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.009037005715072155</v>
+        <v>0.0002581182343419641</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.005749116186052561</v>
+        <v>0.0002455212234053761</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.008486394770443439</v>
+        <v>0.0005381774972192943</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.01168758329004049</v>
+        <v>0.0002604444453027099</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.06104600802063942</v>
+        <v>0.00268356641754508</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.01955009810626507</v>
+        <v>3.331674088258296e-05</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.01839979365468025</v>
+        <v>0.0002927784225903451</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.01691138930618763</v>
+        <v>0.0003080246970057487</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.03974812477827072</v>
+        <v>0.002272375160828233</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01049162540584803</v>
+        <v>5.741433051298372e-05</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.01472353376448154</v>
+        <v>0.0006950328242965043</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.006321640685200691</v>
+        <v>0.0005030675092712045</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0127800926566124</v>
+        <v>0.0003105735231656581</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.03219945728778839</v>
+        <v>0.0009861477883532643</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.004264581482857466</v>
+        <v>0.001307946746237576</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.02070548385381699</v>
+        <v>0.0009282813407480717</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.008843537420034409</v>
+        <v>0.001401955261826515</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.006091753486543894</v>
+        <v>0.001287491177208722</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.01923514343798161</v>
+        <v>0.0001831685949582607</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.008929827250540257</v>
+        <v>0.0008186239865608513</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.02412017248570919</v>
+        <v>0.0001272512890864164</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.004883952438831329</v>
+        <v>3.102047412539832e-05</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.01302111707627773</v>
+        <v>0.0006959366728551686</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.002768285339698195</v>
+        <v>0.0004851249395869672</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01079703029245138</v>
+        <v>0.0005878815427422523</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01388928759843111</v>
+        <v>3.207898407708853e-05</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.03309258818626404</v>
+        <v>2.844905247911811e-05</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.003534541465342045</v>
+        <v>0.0003159702173434198</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.01393943838775158</v>
+        <v>0.0001473735901527107</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.007344997022300959</v>
+        <v>8.208164945244789e-05</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.01311190240085125</v>
+        <v>0.0001717881532385945</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0330972746014595</v>
+        <v>0.001417598221451044</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.002002931199967861</v>
+        <v>0.0005283127538859844</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.002984987106174231</v>
+        <v>0.0002184933691751212</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.009152419865131378</v>
+        <v>0.0001702966110315174</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.05038478597998619</v>
+        <v>0.0009201499633491039</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.009417572058737278</v>
+        <v>0.0003582877689041197</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.006653285585343838</v>
+        <v>0.0004639008548110723</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.002577216830104589</v>
+        <v>0.0004458862531464547</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.007487536408007145</v>
+        <v>1.529254950582981e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03107940033078194</v>
+        <v>0.0007792446413077414</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.005509215407073498</v>
+        <v>0.000459841568954289</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.008037084713578224</v>
+        <v>0.0004410577239468694</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.003546805121004581</v>
+        <v>0.0002834128099493682</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.01242679171264172</v>
+        <v>0.0005716999294236302</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.004208230413496494</v>
+        <v>0.0002122257428709418</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.001204463187605143</v>
+        <v>0.0002280465268995613</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0004151272587478161</v>
+        <v>0.0002568097261246294</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.009276288561522961</v>
+        <v>0.0005444076377898455</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0103456899523735</v>
+        <v>0.0002289735857630149</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.01518756151199341</v>
+        <v>0.0001900369388749823</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.005285805091261864</v>
+        <v>0.0007400715257972479</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.008659192360937595</v>
+        <v>0.0003566848754417151</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.01056917104870081</v>
+        <v>3.505607310216874e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.01036328356713057</v>
+        <v>0.000664816761855036</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.03185286372900009</v>
+        <v>0.000760538037866354</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.04306856170296669</v>
+        <v>6.697910430375487e-05</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.007979178801178932</v>
+        <v>3.054773696931079e-05</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.02857282012701035</v>
+        <v>0.0006554624415002763</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.0008011530735529959</v>
+        <v>0.0004532853199634701</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.009903967380523682</v>
+        <v>0.0006313059711828828</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.006544283125549555</v>
+        <v>0.0002497412206139416</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.01118137873709202</v>
+        <v>0.0006277664215303957</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.006602194625884295</v>
+        <v>0.0001935843756655231</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.0009213840821757913</v>
+        <v>0.0004358621663413942</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.005400409922003746</v>
+        <v>0.0001658840046729892</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.03106276318430901</v>
+        <v>0.000434339395724237</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.0005822486709803343</v>
+        <v>0.0006741550168953836</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.03549976646900177</v>
+        <v>0.0001523747923783958</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.01638814993202686</v>
+        <v>0.0009352384367957711</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.04962221160531044</v>
+        <v>0.0001346544595435262</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.01847749948501587</v>
+        <v>1.421722117811441e-05</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.01303816586732864</v>
+        <v>0.0003830729983747005</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.01288230158388615</v>
+        <v>0.001042061252519488</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.01499111019074917</v>
+        <v>0.0005183071480132639</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.005496612749993801</v>
+        <v>0.0002475740620866418</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.003219932317733765</v>
+        <v>9.559272439219058e-05</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.003159092739224434</v>
+        <v>0.000361041456926614</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.003868674393743277</v>
+        <v>0.0004908780101686716</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.002764199860394001</v>
+        <v>0.000214561223401688</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.001944958930835128</v>
+        <v>0.0002909348986577243</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.001141579123213887</v>
+        <v>6.513047264888883e-05</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.004966277163475752</v>
+        <v>9.916722774505615e-05</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.006670730654150248</v>
+        <v>0.0004738043644465506</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.01820200681686401</v>
+        <v>0.000204243857297115</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01863308623433113</v>
+        <v>0.0004341471067164093</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.002319486811757088</v>
+        <v>0.0004964798572473228</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.001887975609861314</v>
+        <v>0.0004225823795422912</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.01951812580227852</v>
+        <v>2.261323970742524e-05</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.0139454361051321</v>
+        <v>0.0001131541866925545</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.01312848087400198</v>
+        <v>8.755750604905188e-05</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.01365432515740395</v>
+        <v>0.0001064533498720266</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.01850086450576782</v>
+        <v>0.0001994838239625096</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.005085935816168785</v>
+        <v>0.0002763186348602176</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.04228904843330383</v>
+        <v>0.0005917700473219156</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.01267015188932419</v>
+        <v>0.0003495093842502683</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.004135276190936565</v>
+        <v>0.0001524965045973659</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01201675646007061</v>
+        <v>0.0001548206637380645</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01367403846234083</v>
+        <v>0.0004598486411850899</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.008935124613344669</v>
+        <v>0.0004446595266927034</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.009379025548696518</v>
+        <v>5.072214480605908e-05</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.01036562398076057</v>
+        <v>5.118267654324882e-05</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0009147049859166145</v>
+        <v>2.011992910411209e-05</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.01855244301259518</v>
+        <v>0.0004790997772943228</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.001656460110098124</v>
+        <v>0.0005220153834670782</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.001553594367578626</v>
+        <v>0.0004985442501492798</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.004475389141589403</v>
+        <v>6.502107135020196e-05</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.009825087152421474</v>
+        <v>0.0001282930024899542</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.004965702537447214</v>
+        <v>0.0002171162341255695</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.008954185992479324</v>
+        <v>0.0006556421867571771</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.007594550028443336</v>
+        <v>5.513775613508187e-05</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.008237738162279129</v>
+        <v>9.114742715610191e-05</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.02744116820394993</v>
+        <v>0.0006605559028685093</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.001625499688088894</v>
+        <v>0.000316755089443177</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.008022109977900982</v>
+        <v>0.0004411014087963849</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.003018473740667105</v>
+        <v>0.0002779463247861713</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.01424323115497828</v>
+        <v>0.0005503655411303043</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.004682381171733141</v>
+        <v>0.000310226809233427</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.00347472564317286</v>
+        <v>0.0002238182350993156</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0008211405947804451</v>
+        <v>0.00037050386890769</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.002203704556450248</v>
+        <v>5.380483707995154e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.01461280230432749</v>
+        <v>4.463698860490695e-05</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.01670543104410172</v>
+        <v>0.0004465189413167536</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.01851174235343933</v>
+        <v>0.0008967603789642453</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0028838193975389</v>
+        <v>0.0001753614342305809</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.001240048673935235</v>
+        <v>0.000647535955067724</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.002237201202660799</v>
+        <v>7.588746666442603e-05</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.01725765876471996</v>
+        <v>8.096892270259559e-05</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.008538853377103806</v>
+        <v>0.0001702774316072464</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.002253303769975901</v>
+        <v>0.000248453114181757</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01318716630339622</v>
+        <v>0.0007112018647603691</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.01245942991226912</v>
+        <v>0.00023469133884646</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.03216729313135147</v>
+        <v>0.000497769913636148</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.003506419947370887</v>
+        <v>0.0008623117464594543</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.04075032100081444</v>
+        <v>0.0006239975336939096</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.004444961901754141</v>
+        <v>0.0002477738598827273</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.002618080470710993</v>
+        <v>0.0004441419150680304</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.01499594002962112</v>
+        <v>0.0002198592410422862</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.01536168344318867</v>
+        <v>0.0008081052801571786</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.003802525345236063</v>
+        <v>0.0002261734916828573</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.008691651746630669</v>
+        <v>0.0001771725801518187</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.0008124480955302715</v>
+        <v>0.0001119507942348719</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.004208635538816452</v>
+        <v>0.0004062886291649193</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.01483513042330742</v>
+        <v>0.000605235283728689</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.003792924340814352</v>
+        <v>0.00177553272806108</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.0258883610367775</v>
+        <v>0.0001042697113007307</v>
       </c>
       <c r="GG11" t="n">
-        <v>1.973425969481468e-05</v>
+        <v>0.0004374046402517706</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01035572215914726</v>
+        <v>0.001631011604331434</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02816885150969028</v>
+        <v>0.05258265510201454</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002367723267525434</v>
+        <v>0.004564428701996803</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0156104164198041</v>
+        <v>0.03029516153037548</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004054429940879345</v>
+        <v>0.008293625898659229</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00569054251536727</v>
+        <v>0.002939115278422832</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003450790885835886</v>
+        <v>0.002229410922154784</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002324417000636458</v>
+        <v>0.00287867127917707</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0008374443277716637</v>
+        <v>0.002277016174048185</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00524493120610714</v>
+        <v>0.002988692373037338</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02176770195364952</v>
+        <v>0.04221833124756813</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003519057063385844</v>
+        <v>0.0007126576965674758</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01855993457138538</v>
+        <v>0.02706176973879337</v>
       </c>
       <c r="N12" t="n">
-        <v>0.003863285528495908</v>
+        <v>0.01333525404334068</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0007506550755351782</v>
+        <v>0.007656720001250505</v>
       </c>
       <c r="P12" t="n">
-        <v>0.003908377140760422</v>
+        <v>0.006164485588669777</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.004827421624213457</v>
+        <v>0.005866324063390493</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001466709887608886</v>
+        <v>4.413549322634935e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.005355258472263813</v>
+        <v>0.003528195200487971</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0007245074957609177</v>
+        <v>0.006605323869735003</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002125370316207409</v>
+        <v>0.0009436302352696657</v>
       </c>
       <c r="V12" t="n">
-        <v>0.003120290581136942</v>
+        <v>0.004053851589560509</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01662149839103222</v>
+        <v>0.001200769329443574</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0004728100029751658</v>
+        <v>0.004454406909644604</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.004293370060622692</v>
+        <v>0.004926257766783237</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.003311915090307593</v>
+        <v>0.004260387271642685</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.001853931928053498</v>
+        <v>0.003400910180062056</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.006364796310663223</v>
+        <v>0.008690088987350464</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.007924288511276245</v>
+        <v>0.00851831678301096</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006959272082895041</v>
+        <v>0.0004005495575256646</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.005345405079424381</v>
+        <v>0.0001370514510199428</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.003302074270322919</v>
+        <v>0.0007775723934173584</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0003987088275607675</v>
+        <v>0.0001919939531944692</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.002522422932088375</v>
+        <v>0.001504865940660238</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0006422318983823061</v>
+        <v>0.002791892737150192</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.002126893494278193</v>
+        <v>0.001459806924685836</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.006714920978993177</v>
+        <v>0.002028813818469644</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.003561012679710984</v>
+        <v>0.00573381083086133</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0006946914945729077</v>
+        <v>0.002915533259510994</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.002417828422039747</v>
+        <v>0.0001924622338265181</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.001809109700843692</v>
+        <v>0.005212377291172743</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.002931327559053898</v>
+        <v>0.003356627654284239</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0004488397389650345</v>
+        <v>0.002414171816781163</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.001023491378873587</v>
+        <v>0.002547925803810358</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.002468561055138707</v>
+        <v>0.0008878331282176077</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01457746792584658</v>
+        <v>0.006063827779144049</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.02156763896346092</v>
+        <v>0.03897935897111893</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.002534574829041958</v>
+        <v>0.001731108641251922</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0005578391719609499</v>
+        <v>0.01497779507189989</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.00482066860422492</v>
+        <v>0.006066466215997934</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.001458934159018099</v>
+        <v>0.002266848459839821</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.001770090661011636</v>
+        <v>0.004828343633562326</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.005169173236936331</v>
+        <v>0.002271290402859449</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.001638756366446614</v>
+        <v>0.0011214897967875</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0008750392589718103</v>
+        <v>0.004874574951827526</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.003339390503242612</v>
+        <v>0.01140868943184614</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0007957140915095806</v>
+        <v>0.01070741936564445</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.007392719388008118</v>
+        <v>0.001879339339211583</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.004919697064906359</v>
+        <v>0.007793859578669071</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0004987457650713623</v>
+        <v>0.007163204252719879</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.004398304969072342</v>
+        <v>0.004192670341581106</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.000935036689043045</v>
+        <v>0.004545011091977358</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.004491424653679132</v>
+        <v>0.0008264302741736174</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.002350447466596961</v>
+        <v>0.005526985041797161</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.003646078752353787</v>
+        <v>0.009646239690482616</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.00108307134360075</v>
+        <v>0.007570906076580286</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.00322074769064784</v>
+        <v>0.0004087540728505701</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0005131069337949157</v>
+        <v>0.009203525260090828</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.003254095558077097</v>
+        <v>0.005402309820055962</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.0001090368969016708</v>
+        <v>0.003734068712219596</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.001367483520880342</v>
+        <v>0.00144021725282073</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0004900943604297936</v>
+        <v>0.001593102002516389</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.009530668146908283</v>
+        <v>0.004495005588978529</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.006721534766256809</v>
+        <v>0.02086789160966873</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0006432277732528746</v>
+        <v>0.005680146627128124</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.006468960084021091</v>
+        <v>0.01006750389933586</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.008951481431722641</v>
+        <v>0.001558197196573019</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.001280162017792463</v>
+        <v>0.006147970445454121</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.0001047386176651344</v>
+        <v>0.002100277924910188</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0007726503536105156</v>
+        <v>0.002504716394469142</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.001525233848951757</v>
+        <v>0.002609726274386048</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0002900371327996254</v>
+        <v>0.0006576785235665739</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.006586669478565454</v>
+        <v>0.007631774060428143</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0009216202306561172</v>
+        <v>0.00335174729116261</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.003165267407894135</v>
+        <v>0.003358197864145041</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.003043919801712036</v>
+        <v>0.001901446143165231</v>
       </c>
       <c r="CI12" t="n">
-        <v>5.08828234160319e-05</v>
+        <v>0.001129014301113784</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0003116111038252711</v>
+        <v>0.001336365239694715</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.001530083827674389</v>
+        <v>0.0008234009146690369</v>
       </c>
       <c r="CL12" t="n">
-        <v>4.427008389029652e-05</v>
+        <v>0.001329811755567789</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.001611664891242981</v>
+        <v>0.01531808543950319</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.005429636687040329</v>
+        <v>0.00777325127273798</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.001890143612399697</v>
+        <v>0.0004324656329117715</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.004723346326500177</v>
+        <v>0.005839881487190723</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.0147329019382596</v>
+        <v>0.007632868364453316</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.003281688783317804</v>
+        <v>0.002727620303630829</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.001532938214950264</v>
+        <v>0.004832196980714798</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.001124851172789931</v>
+        <v>0.01027075294405222</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.003701256588101387</v>
+        <v>0.001135842525400221</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.0002138775307685137</v>
+        <v>0.0001295178662985563</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.00753959221765399</v>
+        <v>0.007084179203957319</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0007638534298166633</v>
+        <v>0.003893316257745028</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.002663538325577974</v>
+        <v>0.00557202473282814</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.003091287333518267</v>
+        <v>0.002250161254778504</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0005113637307658792</v>
+        <v>0.001051834900863469</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0003607145044952631</v>
+        <v>0.0005418122746050358</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.001619590213522315</v>
+        <v>0.0009528882219456136</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0008866685093380511</v>
+        <v>0.0006493075052276254</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.005161710549145937</v>
+        <v>0.006835713982582092</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.01349080540239811</v>
+        <v>0.002083881990984082</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.000957034295424819</v>
+        <v>0.002769574290141463</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.004768110811710358</v>
+        <v>0.01921250484883785</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0004853371356148273</v>
+        <v>0.003348784754052758</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.00406105350703001</v>
+        <v>0.0005195935955271125</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.001669471384957433</v>
+        <v>0.001329733873717487</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.003859395626932383</v>
+        <v>0.006194652523845434</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.0023326575756073</v>
+        <v>0.0008430337766185403</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.001506361644715071</v>
+        <v>0.004087716341018677</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.001398450927808881</v>
+        <v>0.001890267827548087</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.001458253129385412</v>
+        <v>0.004520085174590349</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.001837359392084181</v>
+        <v>0.003389738732948899</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.005270073190331459</v>
+        <v>0.006596744991838932</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0002341079816687852</v>
+        <v>0.003070289269089699</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.001380398171022534</v>
+        <v>0.0028835020493716</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.001615342567674816</v>
+        <v>0.0009365746518597007</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.001696896273642778</v>
+        <v>0.0007666884339414537</v>
       </c>
       <c r="DW12" t="n">
-        <v>7.856811862438917e-05</v>
+        <v>0.004725259728729725</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.005628108978271484</v>
+        <v>0.01154968235641718</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.002188460901379585</v>
+        <v>0.00131318042986095</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.004394611809402704</v>
+        <v>0.003371210070326924</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.004077895544469357</v>
+        <v>0.008584578521549702</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.0001474220189265907</v>
+        <v>0.002749745501205325</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.002709167310968041</v>
+        <v>0.0009793987264856696</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.001703058485873044</v>
+        <v>0.001229737186804414</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.0003050655941478908</v>
+        <v>0.0006322922999970615</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.004758099094033241</v>
+        <v>0.0002936724340543151</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.005867305211722851</v>
+        <v>0.004892523400485516</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.0004050136776641011</v>
+        <v>0.002226049546152353</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.003796080825850368</v>
+        <v>0.005866430234164</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.003647670615464449</v>
+        <v>0.003730978118255734</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.0011714386055246</v>
+        <v>0.002074805554002523</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.00121521030087024</v>
+        <v>0.0005821464583277702</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.0002746232785284519</v>
+        <v>0.001684350660070777</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.002204154618084431</v>
+        <v>7.283497689059004e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.001091170823201537</v>
+        <v>0.002766004763543606</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.004459360148757696</v>
+        <v>0.005327335093170404</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.003426854033023119</v>
+        <v>0.00554386293515563</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.001696686493232846</v>
+        <v>0.00278739701025188</v>
       </c>
       <c r="ES12" t="n">
-        <v>7.030402775853872e-05</v>
+        <v>0.003389291232451797</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0005179982981644571</v>
+        <v>0.006258055102080107</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.001235729432664812</v>
+        <v>0.001649886835366488</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.002568538999184966</v>
+        <v>0.002793669467791915</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.001593055902048945</v>
+        <v>0.001196946599520743</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.0005264896899461746</v>
+        <v>0.001922200201079249</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.005915443412959576</v>
+        <v>0.00705179525539279</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.0008522284333594143</v>
+        <v>0.002534878207370639</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.002179546980187297</v>
+        <v>0.004063587635755539</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.002895959187299013</v>
+        <v>6.035540718585253e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>6.007488264003769e-05</v>
+        <v>0.001945750089362264</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.0008096335222944617</v>
+        <v>0.001468529691919684</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.001532156486064196</v>
+        <v>0.0003481168241705745</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0004199724353384227</v>
+        <v>0.001355649903416634</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.004516128450632095</v>
+        <v>0.001279784133657813</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.001076209009625018</v>
+        <v>0.005995194427669048</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.002758568385615945</v>
+        <v>0.0001275490940315649</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.002210817765444517</v>
+        <v>0.005500463768839836</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.003833806607872248</v>
+        <v>0.002960470737889409</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.0007477026665583253</v>
+        <v>0.00327718909829855</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.003330842591822147</v>
+        <v>0.004061101004481316</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0002025408903136849</v>
+        <v>0.001093997620046139</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.004186492413282394</v>
+        <v>0.001304299803450704</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.002087901579216123</v>
+        <v>0.00605685543268919</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.001740448176860809</v>
+        <v>0.007139935623854399</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.0007272928487509489</v>
+        <v>0.00273635727353394</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.01429988816380501</v>
+        <v>0.001471098978072405</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.004601258784532547</v>
+        <v>0.0009803840657696128</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.001374751795083284</v>
+        <v>0.00185603997670114</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0001518489880254492</v>
+        <v>0.001286725979298353</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0001455632009310648</v>
+        <v>0.002065058099105954</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.002452490152791142</v>
+        <v>0.00155271275434643</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.001612181309610605</v>
+        <v>0.005413929000496864</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.007100934162735939</v>
+        <v>0.002844048198312521</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.006866471841931343</v>
+        <v>0.003084969241172075</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.002864321926608682</v>
+        <v>3.392997314222157e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.006596204824745655</v>
+        <v>0.003028696402907372</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0001652005448704585</v>
+        <v>0.006452927365899086</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.002450561383739114</v>
+        <v>0.007344287354499102</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.002974287373945117</v>
+        <v>0.001143357832916081</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.0006669785361737013</v>
+        <v>0.0001104603288695216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1171099990606308</v>
+        <v>0.008726856671273708</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03215458616614342</v>
+        <v>0.0007500459905713797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005300585180521011</v>
+        <v>0.001812145696021616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1633059680461884</v>
+        <v>0.004704102408140898</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02089898474514484</v>
+        <v>0.001440699561499059</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0159289725124836</v>
+        <v>0.001835231902077794</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06098055467009544</v>
+        <v>0.001328688696958125</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006429907400161028</v>
+        <v>0.0005293807480484247</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01516288705170155</v>
+        <v>7.642584387212992e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08892800658941269</v>
+        <v>0.007619220763444901</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0008896547369658947</v>
+        <v>4.432047717273235e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05620477348566055</v>
+        <v>0.002400007331743836</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1525370478630066</v>
+        <v>0.001263385638594627</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01192422397434711</v>
+        <v>0.001834360882639885</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06580767780542374</v>
+        <v>0.0006364407599903643</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06711798906326294</v>
+        <v>0.0007380162714980543</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05564756691455841</v>
+        <v>0.001241132500581443</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001367655582726002</v>
+        <v>0.0005122117581777275</v>
       </c>
       <c r="S13" t="n">
-        <v>0.003937920555472374</v>
+        <v>0.001160299172624946</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002915773540735245</v>
+        <v>0.001797402743250132</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001626574900001287</v>
+        <v>0.0005871693138033152</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02449409291148186</v>
+        <v>1.857396273408085e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>0.05793613940477371</v>
+        <v>0.0008790027350187302</v>
       </c>
       <c r="X13" t="n">
-        <v>0.003635789267718792</v>
+        <v>0.0002585913171060383</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02678327448666096</v>
+        <v>3.825494786724448e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.004083717707544565</v>
+        <v>0.001637427601963282</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.001505289226770401</v>
+        <v>5.103412695461884e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01886875554919243</v>
+        <v>0.0007116590859368443</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01246953569352627</v>
+        <v>0.001770806033164263</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02746400609612465</v>
+        <v>0.000380910380044952</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.01310962438583374</v>
+        <v>0.0006065571797080338</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0127986678853631</v>
+        <v>0.0005110189085826278</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0205544363707304</v>
+        <v>0.0001325238845311105</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0381295271217823</v>
+        <v>0.0003288221196271479</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.03646233677864075</v>
+        <v>0.001072112005203962</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.009902089834213257</v>
+        <v>0.0006703610997647047</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.03984017670154572</v>
+        <v>0.0009924373589456081</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01611294224858284</v>
+        <v>5.006638821214437e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.01082152687013149</v>
+        <v>0.0003156501334160566</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.02961328253149986</v>
+        <v>0.0009740975801832974</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.002992191351950169</v>
+        <v>0.001122292480431497</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.03668022155761719</v>
+        <v>0.0002637735742609948</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.005397330969572067</v>
+        <v>0.0009190941927954555</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.04545875638723373</v>
+        <v>0.001269996631890535</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.003696565283462405</v>
+        <v>0.0003681523085106164</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.04410774260759354</v>
+        <v>0.005151258315891027</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.02835932374000549</v>
+        <v>0.00190118548925966</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.001412470359355211</v>
+        <v>0.001959798391908407</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.09254983067512512</v>
+        <v>0.003128346987068653</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.009395021945238113</v>
+        <v>0.002139674965292215</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.04070543497800827</v>
+        <v>0.0003031369997188449</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.02936358191072941</v>
+        <v>0.0007349535007961094</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.02024412900209427</v>
+        <v>0.002538570901378989</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0129143362864852</v>
+        <v>0.0005447471630759537</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.04945919662714005</v>
+        <v>0.003492813091725111</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.02518667280673981</v>
+        <v>0.003955780528485775</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.01878773421049118</v>
+        <v>0.0003138154279440641</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.04996385052800179</v>
+        <v>0.0004518122877925634</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.03004111722111702</v>
+        <v>0.00160653458442539</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.01477244216948748</v>
+        <v>0.0002209188824053854</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.04996814951300621</v>
+        <v>0.0003270573215559125</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.05898142233490944</v>
+        <v>0.002045932458713651</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.008358259685337543</v>
+        <v>0.001378066837787628</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.003024954348802567</v>
+        <v>3.955031934310682e-05</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.002050492912530899</v>
+        <v>0.001748946728184819</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.005735686980187893</v>
+        <v>0.0004503377713263035</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01221468020230532</v>
+        <v>0.0002562919107731432</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.007220292929559946</v>
+        <v>0.0001264166203327477</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.01083325780928135</v>
+        <v>0.000683635997120291</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.007946860045194626</v>
+        <v>0.0008189999498426914</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.02032977901399136</v>
+        <v>0.0004972250899299979</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.009193932637572289</v>
+        <v>0.0006685149855911732</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.05198423191905022</v>
+        <v>0.002496735192835331</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0002696444280445576</v>
+        <v>5.386452539823949e-05</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.03161934390664101</v>
+        <v>0.0005572762456722558</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.04569559544324875</v>
+        <v>0.0009582052007317543</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01819940842688084</v>
+        <v>7.913532317616045e-05</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.008390722796320915</v>
+        <v>0.0003198863996658474</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.004592473618686199</v>
+        <v>0.0002617320569697767</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.005046091973781586</v>
+        <v>0.001697497675195336</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.04012845084071159</v>
+        <v>0.0005423069233074784</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.02136489376425743</v>
+        <v>0.001628236495889723</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0188312865793705</v>
+        <v>0.001196420518681407</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.008037976920604706</v>
+        <v>0.0001269789063371718</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.02577533945441246</v>
+        <v>0.0002652278344612569</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.00536460755392909</v>
+        <v>4.805551725439727e-07</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.01043008640408516</v>
+        <v>0.0009884724859148264</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.01014267280697823</v>
+        <v>8.577987318858504e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.007186335045844316</v>
+        <v>0.001084575313143432</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.01283029932528734</v>
+        <v>0.0001397948217345402</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.01963403820991516</v>
+        <v>0.00220827478915453</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0002453334163874388</v>
+        <v>0.001115894177928567</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.006509585306048393</v>
+        <v>0.0002949742774944752</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.01289587095379829</v>
+        <v>0.001450961921364069</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.06019263714551926</v>
+        <v>0.002415457041934133</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.06589836627244949</v>
+        <v>0.0008666393696330488</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.02460159361362457</v>
+        <v>0.001456712139770389</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.03715980425477028</v>
+        <v>0.002994580892845988</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.02741964533925056</v>
+        <v>0.0002926065644714981</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.01595092937350273</v>
+        <v>0.00139485823456198</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.02203337103128433</v>
+        <v>0.001343815238215029</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.008686378598213196</v>
+        <v>0.0003262392419856042</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.01917237043380737</v>
+        <v>0.0004822007613256574</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01223901845514774</v>
+        <v>0.0001956386840902269</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.01501189172267914</v>
+        <v>0.0007599495584145188</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.01365606114268303</v>
+        <v>0.0002268810203531757</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.003214229829609394</v>
+        <v>0.000814201426692307</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.008842958137392998</v>
+        <v>0.000135658192448318</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.01046777609735727</v>
+        <v>0.000667214160785079</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.04403439164161682</v>
+        <v>0.001375581137835979</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01252611819654703</v>
+        <v>0.00128968118224293</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.007033834233880043</v>
+        <v>0.003180108498781919</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0502510741353035</v>
+        <v>0.001634118147194386</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.01686896570026875</v>
+        <v>0.0008170779328793287</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.02000262215733528</v>
+        <v>0.001216930104419589</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.027799928560853</v>
+        <v>0.003259417833760381</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.01927990466356277</v>
+        <v>0.0003812187351286411</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.007137462962418795</v>
+        <v>0.0008750594570301473</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.02469578944146633</v>
+        <v>0.0002882290282286704</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.01127282902598381</v>
+        <v>0.0003560747718438506</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0107816606760025</v>
+        <v>0.001532663009129465</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.000372091424651444</v>
+        <v>0.001753511256538332</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0254698134958744</v>
+        <v>0.0008192601962946355</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.01329283695667982</v>
+        <v>0.000668939552269876</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.006094502285122871</v>
+        <v>0.0003564610378816724</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0003850370412692428</v>
+        <v>0.0007668957696296275</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.005038138013333082</v>
+        <v>0.001341854920610785</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.001080446410924196</v>
+        <v>0.00075909512815997</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.02092224545776844</v>
+        <v>0.0003273108741268516</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.005870605818927288</v>
+        <v>0.0005229930975474417</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01348937302827835</v>
+        <v>0.001154043362475932</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.03550271317362785</v>
+        <v>1.46292459248798e-05</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.01919261366128922</v>
+        <v>0.0006394729716703296</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.01689218357205391</v>
+        <v>0.0002274363359902054</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.001674474915489554</v>
+        <v>0.0003085503994952887</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.04997657611966133</v>
+        <v>0.00188871962018311</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.01046266686171293</v>
+        <v>0.002045644912868738</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.009121628478169441</v>
+        <v>0.001499520149081945</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.02758780680596828</v>
+        <v>0.001923573785461485</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.01745564863085747</v>
+        <v>0.001894310698844492</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.01427063532173634</v>
+        <v>0.0002465613069944084</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.002577299252152443</v>
+        <v>0.000244155089603737</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.02574301511049271</v>
+        <v>0.0002953885996248573</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.008361710235476494</v>
+        <v>0.0001652294595260173</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.009713954292237759</v>
+        <v>0.0002150131622329354</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.00854186899960041</v>
+        <v>0.002595276804640889</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.03334156796336174</v>
+        <v>0.0004162008117418736</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.008251061663031578</v>
+        <v>8.298899047076702e-06</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.003249720670282841</v>
+        <v>6.135129660833627e-05</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.01690259389579296</v>
+        <v>0.001086076721549034</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0192188024520874</v>
+        <v>0.0008002237300388515</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.01387261413037777</v>
+        <v>0.0005495070945471525</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.007280853576958179</v>
+        <v>0.001357631175778806</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.01999375969171524</v>
+        <v>0.001452393364161253</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.01881605759263039</v>
+        <v>0.001377551001496613</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.01269149128347635</v>
+        <v>0.0004224850563332438</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.02122734300792217</v>
+        <v>0.0005031533655710518</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01157976966351271</v>
+        <v>8.104872540570796e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0006521776667796075</v>
+        <v>0.0008256002911366522</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.009452652186155319</v>
+        <v>0.0001314667024416849</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.01097925752401352</v>
+        <v>0.0009320844546891749</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0009713987819850445</v>
+        <v>0.0001966326963156462</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.02258913777768612</v>
+        <v>0.0001626443699933589</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.002053580246865749</v>
+        <v>0.00165009475313127</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.006333639845252037</v>
+        <v>0.001653300365433097</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.03356211259961128</v>
+        <v>0.0009920739103108644</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01292053423821926</v>
+        <v>0.0008573575178161263</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.04857277497649193</v>
+        <v>0.00182410329580307</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.01782481372356415</v>
+        <v>0.001404982293024659</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.02935498394072056</v>
+        <v>0.0004490180290304124</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.01202684454619884</v>
+        <v>0.0004624438006430864</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.02865773625671864</v>
+        <v>0.001550506101921201</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.03805913776159286</v>
+        <v>0.000526453135535121</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.03195977583527565</v>
+        <v>0.001513962866738439</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0291961170732975</v>
+        <v>0.001019084709696472</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.01934778690338135</v>
+        <v>0.00222277594730258</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.02751263044774532</v>
+        <v>0.001911144587211311</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.001037148060277104</v>
+        <v>0.001388458535075188</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.03441405668854713</v>
+        <v>2.463252167217433e-05</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.02047480270266533</v>
+        <v>0.0001053273881552741</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.02822931297123432</v>
+        <v>0.0006813780637457967</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02342689409852028</v>
+        <v>5.613388202618808e-05</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.02328850328922272</v>
+        <v>0.0002394372131675482</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.01390648912638426</v>
+        <v>0.0001796833821572363</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.004654353484511375</v>
+        <v>0.0006687330896966159</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.01736617833375931</v>
+        <v>0.0003028829814866185</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.01671994663774967</v>
+        <v>0.001034660963341594</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0292239636182785</v>
+        <v>0.000537474756129086</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.007711745798587799</v>
+        <v>0.0004865268711000681</v>
       </c>
     </row>
     <row r="14">
@@ -8970,1709 +8970,1709 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0002312600845471025</v>
+        <v>3.938581721740775e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>9.552297706250101e-05</v>
+        <v>0.0003021846059709787</v>
       </c>
       <c r="C16" t="n">
-        <v>2.067486639134586e-05</v>
+        <v>3.120422843494453e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>9.160332410829142e-05</v>
+        <v>0.0002281047927681357</v>
       </c>
       <c r="E16" t="n">
-        <v>8.028314914554358e-05</v>
+        <v>7.93904546299018e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>6.821658462285995e-05</v>
+        <v>3.849655331578106e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001611917250556871</v>
+        <v>1.432282715541078e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001035884124576114</v>
+        <v>1.789332964108326e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>2.478121132298838e-05</v>
+        <v>3.176266909576952e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002082612336380407</v>
+        <v>6.250254227779806e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>5.258681630948558e-05</v>
+        <v>0.0002373135212110355</v>
       </c>
       <c r="L16" t="n">
-        <v>1.958354732778389e-05</v>
+        <v>2.31113335757982e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>6.255643529584631e-05</v>
+        <v>0.0001756221172399819</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0001507374690845609</v>
+        <v>0.0001168663802673109</v>
       </c>
       <c r="O16" t="n">
-        <v>1.481240360590164e-05</v>
+        <v>0.0001281439472222701</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0001541004166938365</v>
+        <v>1.851118213380687e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.013666304876097e-05</v>
+        <v>5.765826062997803e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>3.394197119632736e-05</v>
+        <v>2.403919825155754e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>2.477329871908296e-05</v>
+        <v>6.472946552094072e-07</v>
       </c>
       <c r="T16" t="n">
-        <v>1.091415924747707e-06</v>
+        <v>5.370980215957388e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>3.927234502043575e-06</v>
+        <v>8.314951628562994e-06</v>
       </c>
       <c r="V16" t="n">
-        <v>4.937600806442788e-06</v>
+        <v>2.22700837184675e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>2.822401802404784e-05</v>
+        <v>4.622135020326823e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>3.502217623463366e-06</v>
+        <v>4.22601806349121e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.791397754568607e-05</v>
+        <v>5.220797174843028e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.093585736583918e-05</v>
+        <v>2.530331948946696e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.985474207496736e-06</v>
+        <v>4.903340959572233e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.441286258341279e-05</v>
+        <v>1.150895332102664e-05</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.11019981483696e-06</v>
+        <v>3.939806265407242e-05</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.556768620503135e-05</v>
+        <v>1.657141910982318e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.349261219729669e-05</v>
+        <v>2.342184234294109e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>6.109050445957109e-05</v>
+        <v>2.524795127101243e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.268592131964397e-05</v>
+        <v>3.513919182296377e-07</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.195410706917755e-05</v>
+        <v>3.216517507098615e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>5.213726399233565e-05</v>
+        <v>7.076017936924472e-06</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.217865226673894e-08</v>
+        <v>1.556539473313023e-06</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.997105573536828e-05</v>
+        <v>3.750983523786999e-05</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.446448322894867e-06</v>
+        <v>2.360714279348031e-05</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.366841297567589e-05</v>
+        <v>9.642541954235639e-06</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.280428791185841e-05</v>
+        <v>1.681501998973545e-05</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.195877939608181e-05</v>
+        <v>2.113126174663194e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.553696140239481e-05</v>
+        <v>6.642022981395712e-06</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8.350283678737469e-06</v>
+        <v>3.010850377904717e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.019422572629992e-05</v>
+        <v>8.517483365722001e-06</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.431593318557134e-06</v>
+        <v>1.767196772561874e-05</v>
       </c>
       <c r="AT16" t="n">
-        <v>9.098520968109369e-05</v>
+        <v>1.236675234395079e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>2.384580875514075e-05</v>
+        <v>0.0002054830110864714</v>
       </c>
       <c r="AV16" t="n">
-        <v>3.402237325644819e-06</v>
+        <v>2.48846881731879e-05</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.812222323380411e-05</v>
+        <v>4.243108196533285e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>2.012769618886523e-05</v>
+        <v>6.396988283086102e-06</v>
       </c>
       <c r="AY16" t="n">
-        <v>2.366370244999416e-05</v>
+        <v>7.570442903670482e-06</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6.44353567622602e-05</v>
+        <v>1.793693627405446e-06</v>
       </c>
       <c r="BA16" t="n">
-        <v>2.845142080332153e-05</v>
+        <v>6.134917202871293e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>5.401864200393902e-06</v>
+        <v>1.422684727003798e-05</v>
       </c>
       <c r="BC16" t="n">
-        <v>9.164067159872502e-05</v>
+        <v>1.116007479140535e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.055688017004286e-06</v>
+        <v>2.862866313080303e-05</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.682528090896085e-05</v>
+        <v>9.234408207703382e-05</v>
       </c>
       <c r="BF16" t="n">
-        <v>3.83170299755875e-05</v>
+        <v>5.085505836177617e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>5.951713319518603e-05</v>
+        <v>0.0001068207275238819</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.052204879670171e-06</v>
+        <v>4.000830085715279e-05</v>
       </c>
       <c r="BI16" t="n">
-        <v>8.716409502085298e-05</v>
+        <v>1.885968049464282e-05</v>
       </c>
       <c r="BJ16" t="n">
-        <v>9.196868631988764e-05</v>
+        <v>6.314777419902384e-05</v>
       </c>
       <c r="BK16" t="n">
-        <v>4.399720637593418e-06</v>
+        <v>2.916161975008436e-06</v>
       </c>
       <c r="BL16" t="n">
-        <v>1.923942545545287e-05</v>
+        <v>5.017024886910804e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>2.105571911670268e-05</v>
+        <v>4.805466596735641e-05</v>
       </c>
       <c r="BN16" t="n">
-        <v>8.91769741429016e-06</v>
+        <v>3.530626054271124e-05</v>
       </c>
       <c r="BO16" t="n">
-        <v>1.371006419503829e-05</v>
+        <v>1.818376404116862e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>7.088158326951088e-06</v>
+        <v>7.208785245893523e-05</v>
       </c>
       <c r="BQ16" t="n">
-        <v>2.512872561055701e-05</v>
+        <v>2.829168806783855e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>3.327434023958631e-05</v>
+        <v>1.764354965416715e-05</v>
       </c>
       <c r="BS16" t="n">
-        <v>1.170128143712645e-05</v>
+        <v>5.628234066534787e-05</v>
       </c>
       <c r="BT16" t="n">
-        <v>1.340671224170364e-05</v>
+        <v>1.339830487268046e-05</v>
       </c>
       <c r="BU16" t="n">
-        <v>7.527721027145162e-05</v>
+        <v>4.202912350592669e-06</v>
       </c>
       <c r="BV16" t="n">
-        <v>2.342740663152654e-05</v>
+        <v>9.436059917788953e-05</v>
       </c>
       <c r="BW16" t="n">
-        <v>2.176621637772769e-05</v>
+        <v>3.5394165024627e-05</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.0001216945966007188</v>
+        <v>2.306576607224997e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>5.382692324928939e-05</v>
+        <v>9.065336598723661e-06</v>
       </c>
       <c r="BZ16" t="n">
-        <v>1.062205865309807e-05</v>
+        <v>1.065652941178996e-05</v>
       </c>
       <c r="CA16" t="n">
-        <v>2.790045982692391e-05</v>
+        <v>4.191345578874461e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>2.889302777475677e-05</v>
+        <v>1.069085647031898e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>4.735624315799214e-06</v>
+        <v>2.046001645794604e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>3.775596269406378e-05</v>
+        <v>1.094849608307413e-06</v>
       </c>
       <c r="CE16" t="n">
-        <v>4.053917655255646e-05</v>
+        <v>5.156280531082302e-05</v>
       </c>
       <c r="CF16" t="n">
-        <v>5.382830750022549e-06</v>
+        <v>2.920091901614796e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>2.165893965866417e-05</v>
+        <v>1.766169225447811e-05</v>
       </c>
       <c r="CH16" t="n">
-        <v>2.256477455375716e-05</v>
+        <v>1.508739296696149e-05</v>
       </c>
       <c r="CI16" t="n">
-        <v>1.131772933149477e-07</v>
+        <v>1.799091114662588e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>3.112255944870412e-05</v>
+        <v>8.120558049995452e-06</v>
       </c>
       <c r="CK16" t="n">
-        <v>1.19824753710418e-05</v>
+        <v>4.534784693532856e-06</v>
       </c>
       <c r="CL16" t="n">
-        <v>7.680069757043384e-06</v>
+        <v>2.477704219927546e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>9.03487489267718e-06</v>
+        <v>5.281115954858251e-05</v>
       </c>
       <c r="CN16" t="n">
-        <v>3.257305434090085e-05</v>
+        <v>1.812483560570399e-06</v>
       </c>
       <c r="CO16" t="n">
-        <v>2.304994632140733e-05</v>
+        <v>1.732317105052061e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>1.384587267239112e-05</v>
+        <v>9.588697867002338e-05</v>
       </c>
       <c r="CQ16" t="n">
-        <v>2.151253465854097e-05</v>
+        <v>5.871575558558106e-05</v>
       </c>
       <c r="CR16" t="n">
-        <v>1.512686867499724e-05</v>
+        <v>3.84947270504199e-07</v>
       </c>
       <c r="CS16" t="n">
-        <v>2.103080805682112e-05</v>
+        <v>5.36040315637365e-05</v>
       </c>
       <c r="CT16" t="n">
-        <v>2.193789987359196e-05</v>
+        <v>7.296606327145128e-06</v>
       </c>
       <c r="CU16" t="n">
-        <v>3.896361704391893e-06</v>
+        <v>7.286069831025088e-06</v>
       </c>
       <c r="CV16" t="n">
-        <v>3.184326124028303e-05</v>
+        <v>4.157176590524614e-06</v>
       </c>
       <c r="CW16" t="n">
-        <v>3.76344978576526e-05</v>
+        <v>4.649682159652002e-05</v>
       </c>
       <c r="CX16" t="n">
-        <v>4.992522917746101e-06</v>
+        <v>2.754690831352491e-05</v>
       </c>
       <c r="CY16" t="n">
-        <v>1.481459548813291e-05</v>
+        <v>3.47095774486661e-05</v>
       </c>
       <c r="CZ16" t="n">
-        <v>1.090485784516204e-05</v>
+        <v>2.058893551293295e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>2.179456032536109e-06</v>
+        <v>2.224368108727504e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>3.31060255120974e-05</v>
+        <v>1.887118378363084e-05</v>
       </c>
       <c r="DC16" t="n">
-        <v>1.476840043324046e-05</v>
+        <v>9.470424629398622e-06</v>
       </c>
       <c r="DD16" t="n">
-        <v>1.116462044592481e-05</v>
+        <v>1.835455441323575e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>3.15532015520148e-05</v>
+        <v>4.448447361937724e-05</v>
       </c>
       <c r="DF16" t="n">
-        <v>5.051059270044789e-05</v>
+        <v>6.820575890742475e-06</v>
       </c>
       <c r="DG16" t="n">
-        <v>8.488212870361167e-07</v>
+        <v>7.211080082925037e-05</v>
       </c>
       <c r="DH16" t="n">
-        <v>2.785818287520669e-05</v>
+        <v>0.0001314687251579016</v>
       </c>
       <c r="DI16" t="n">
-        <v>2.206410044891527e-06</v>
+        <v>6.850632780697197e-05</v>
       </c>
       <c r="DJ16" t="n">
-        <v>4.30832733400166e-06</v>
+        <v>1.85544940904947e-05</v>
       </c>
       <c r="DK16" t="n">
-        <v>1.234104001923697e-05</v>
+        <v>2.215092536062002e-06</v>
       </c>
       <c r="DL16" t="n">
-        <v>4.477088441490196e-05</v>
+        <v>3.739547901204787e-05</v>
       </c>
       <c r="DM16" t="n">
-        <v>6.071832831366919e-05</v>
+        <v>2.724467776715755e-05</v>
       </c>
       <c r="DN16" t="n">
-        <v>1.135146703745704e-05</v>
+        <v>4.781207280757371e-06</v>
       </c>
       <c r="DO16" t="n">
-        <v>1.40744486998301e-05</v>
+        <v>1.457151120121125e-05</v>
       </c>
       <c r="DP16" t="n">
-        <v>5.069400685897563e-06</v>
+        <v>3.035232293768786e-05</v>
       </c>
       <c r="DQ16" t="n">
-        <v>1.425797199772205e-05</v>
+        <v>5.113438419357408e-06</v>
       </c>
       <c r="DR16" t="n">
-        <v>6.092871444707271e-06</v>
+        <v>2.255491563118994e-05</v>
       </c>
       <c r="DS16" t="n">
-        <v>2.032894371950533e-06</v>
+        <v>1.929897371155676e-05</v>
       </c>
       <c r="DT16" t="n">
-        <v>1.406674982717959e-05</v>
+        <v>1.659138797549531e-05</v>
       </c>
       <c r="DU16" t="n">
-        <v>9.839228368946351e-06</v>
+        <v>8.309239092341159e-07</v>
       </c>
       <c r="DV16" t="n">
-        <v>6.906172075105133e-06</v>
+        <v>4.559327135211788e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>1.578744195285253e-05</v>
+        <v>1.115959275921341e-05</v>
       </c>
       <c r="DX16" t="n">
-        <v>1.577833427290898e-05</v>
+        <v>3.305147038190626e-05</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.55556806223467e-05</v>
+        <v>5.942285497440025e-05</v>
       </c>
       <c r="DZ16" t="n">
-        <v>2.547639633121435e-05</v>
+        <v>1.759248789312551e-06</v>
       </c>
       <c r="EA16" t="n">
-        <v>1.905624230857939e-05</v>
+        <v>5.380758011597209e-06</v>
       </c>
       <c r="EB16" t="n">
-        <v>9.047503226611298e-06</v>
+        <v>4.458111288840882e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>3.909938095603138e-05</v>
+        <v>8.864086339599453e-06</v>
       </c>
       <c r="ED16" t="n">
-        <v>5.235657590674236e-05</v>
+        <v>3.635093662524014e-06</v>
       </c>
       <c r="EE16" t="n">
-        <v>1.596903894096613e-05</v>
+        <v>5.023921403335407e-06</v>
       </c>
       <c r="EF16" t="n">
-        <v>7.037736941128969e-05</v>
+        <v>1.337105277343653e-05</v>
       </c>
       <c r="EG16" t="n">
-        <v>3.945009666495025e-05</v>
+        <v>3.652596933534369e-05</v>
       </c>
       <c r="EH16" t="n">
-        <v>1.260630597244017e-05</v>
+        <v>1.510737365606474e-05</v>
       </c>
       <c r="EI16" t="n">
-        <v>4.561409878078848e-05</v>
+        <v>1.813996641431004e-05</v>
       </c>
       <c r="EJ16" t="n">
-        <v>1.98034704226302e-05</v>
+        <v>2.397409116383642e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>1.208865523949498e-05</v>
+        <v>1.783008701750077e-05</v>
       </c>
       <c r="EL16" t="n">
-        <v>9.421273716725409e-06</v>
+        <v>2.733127621468157e-05</v>
       </c>
       <c r="EM16" t="n">
-        <v>9.88812098512426e-06</v>
+        <v>7.140291927498765e-06</v>
       </c>
       <c r="EN16" t="n">
-        <v>8.735017217986751e-06</v>
+        <v>1.295896981901024e-05</v>
       </c>
       <c r="EO16" t="n">
-        <v>3.604207449825481e-06</v>
+        <v>2.202443283749744e-06</v>
       </c>
       <c r="EP16" t="n">
-        <v>7.468995318049565e-05</v>
+        <v>2.332523035875056e-05</v>
       </c>
       <c r="EQ16" t="n">
-        <v>1.139428513852181e-05</v>
+        <v>3.609917257563211e-05</v>
       </c>
       <c r="ER16" t="n">
-        <v>1.678140142757911e-05</v>
+        <v>1.378840124743874e-06</v>
       </c>
       <c r="ES16" t="n">
-        <v>2.70405289484188e-05</v>
+        <v>1.813139169826172e-05</v>
       </c>
       <c r="ET16" t="n">
-        <v>2.080356171063613e-05</v>
+        <v>2.368650257267291e-06</v>
       </c>
       <c r="EU16" t="n">
-        <v>1.04047212516889e-05</v>
+        <v>1.474063901696354e-05</v>
       </c>
       <c r="EV16" t="n">
-        <v>1.563436853757594e-05</v>
+        <v>6.598746404051781e-05</v>
       </c>
       <c r="EW16" t="n">
-        <v>9.718950423120987e-06</v>
+        <v>1.977475039893761e-05</v>
       </c>
       <c r="EX16" t="n">
-        <v>3.296267459518276e-05</v>
+        <v>4.155568603891879e-06</v>
       </c>
       <c r="EY16" t="n">
-        <v>2.647711698955391e-05</v>
+        <v>4.401256956043653e-05</v>
       </c>
       <c r="EZ16" t="n">
-        <v>3.146997414660291e-06</v>
+        <v>2.181389208999462e-05</v>
       </c>
       <c r="FA16" t="n">
-        <v>1.674100712989457e-05</v>
+        <v>2.108387889165897e-05</v>
       </c>
       <c r="FB16" t="n">
-        <v>1.266329036297975e-05</v>
+        <v>9.288055480283219e-06</v>
       </c>
       <c r="FC16" t="n">
-        <v>7.385824119410245e-06</v>
+        <v>2.208079968113452e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>2.523366856621578e-05</v>
+        <v>1.436944967281306e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>2.625126853672555e-06</v>
+        <v>3.321556960145244e-06</v>
       </c>
       <c r="FF16" t="n">
-        <v>3.482504325802438e-06</v>
+        <v>2.813496939779725e-05</v>
       </c>
       <c r="FG16" t="n">
-        <v>2.189905717386864e-05</v>
+        <v>2.358167876082007e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>2.007601688092109e-05</v>
+        <v>1.318724116572412e-06</v>
       </c>
       <c r="FI16" t="n">
-        <v>4.3655973058776e-06</v>
+        <v>6.225890683708712e-05</v>
       </c>
       <c r="FJ16" t="n">
-        <v>1.049534330377355e-05</v>
+        <v>4.586735667544417e-05</v>
       </c>
       <c r="FK16" t="n">
-        <v>1.427622009941842e-06</v>
+        <v>6.813063464505831e-07</v>
       </c>
       <c r="FL16" t="n">
-        <v>2.885478170355782e-05</v>
+        <v>2.988291089423001e-05</v>
       </c>
       <c r="FM16" t="n">
-        <v>4.706758045358583e-05</v>
+        <v>1.414047619618941e-05</v>
       </c>
       <c r="FN16" t="n">
-        <v>2.096538810292259e-05</v>
+        <v>4.590324169839732e-05</v>
       </c>
       <c r="FO16" t="n">
-        <v>1.164009518106468e-05</v>
+        <v>2.452815533615649e-05</v>
       </c>
       <c r="FP16" t="n">
-        <v>3.58920224243775e-05</v>
+        <v>7.47887816032744e-06</v>
       </c>
       <c r="FQ16" t="n">
-        <v>3.844348611892201e-05</v>
+        <v>5.507817149918992e-06</v>
       </c>
       <c r="FR16" t="n">
-        <v>2.852311627066229e-05</v>
+        <v>4.898054612567648e-06</v>
       </c>
       <c r="FS16" t="n">
-        <v>4.47314560005907e-05</v>
+        <v>8.531941602996085e-06</v>
       </c>
       <c r="FT16" t="n">
-        <v>2.304511872353032e-05</v>
+        <v>5.783413871540688e-05</v>
       </c>
       <c r="FU16" t="n">
-        <v>4.338316284702159e-05</v>
+        <v>4.279172571841627e-07</v>
       </c>
       <c r="FV16" t="n">
-        <v>5.194644108996727e-05</v>
+        <v>3.663825191324577e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>6.514437700388953e-06</v>
+        <v>4.426034502102993e-05</v>
       </c>
       <c r="FX16" t="n">
-        <v>4.658395846490748e-05</v>
+        <v>3.33032148773782e-05</v>
       </c>
       <c r="FY16" t="n">
-        <v>4.302001616451889e-05</v>
+        <v>6.422966544050723e-05</v>
       </c>
       <c r="FZ16" t="n">
-        <v>6.909381227160338e-06</v>
+        <v>2.827833304763772e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>2.802635208354332e-05</v>
+        <v>5.087421868665842e-06</v>
       </c>
       <c r="GB16" t="n">
-        <v>2.266192313982174e-05</v>
+        <v>5.48431626157253e-06</v>
       </c>
       <c r="GC16" t="n">
-        <v>3.557888703653589e-06</v>
+        <v>7.776456186547875e-05</v>
       </c>
       <c r="GD16" t="n">
-        <v>1.546403382235439e-06</v>
+        <v>4.688126500695944e-05</v>
       </c>
       <c r="GE16" t="n">
-        <v>1.2381015039864e-05</v>
+        <v>9.919614967657253e-05</v>
       </c>
       <c r="GF16" t="n">
-        <v>2.998445415869355e-05</v>
+        <v>1.980873821594287e-05</v>
       </c>
       <c r="GG16" t="n">
-        <v>3.867959094350226e-05</v>
+        <v>4.861117486143485e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0007832281989976764</v>
+        <v>0.0001127168216044083</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0001019706978695467</v>
+        <v>0.002944689942523837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000986747327260673</v>
+        <v>1.498403435107321e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0002068076864816248</v>
+        <v>0.00141638983041048</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0003646425902843475</v>
+        <v>0.0002926437300629914</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0002274340513395146</v>
+        <v>0.001894774613901973</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001428778632543981</v>
+        <v>0.0001137079525506124</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001514135801699013</v>
+        <v>0.001147500006482005</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000406011356972158</v>
+        <v>0.0001296392147196457</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0007402506307698786</v>
+        <v>0.0004295097023714334</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001462807267671451</v>
+        <v>0.002793787280097604</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00105952238664031</v>
+        <v>0.0001663427538005635</v>
       </c>
       <c r="M17" t="n">
-        <v>5.534113370231353e-06</v>
+        <v>0.001011669053696096</v>
       </c>
       <c r="N17" t="n">
-        <v>5.007113213650882e-05</v>
+        <v>0.0001940586953423917</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0001459177874494344</v>
+        <v>0.001870084088295698</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0002003172994591296</v>
+        <v>1.324342156294733e-05</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0001011902058962733</v>
+        <v>0.0003989445976912975</v>
       </c>
       <c r="R17" t="n">
-        <v>0.000393440539482981</v>
+        <v>0.0002862340188585222</v>
       </c>
       <c r="S17" t="n">
-        <v>2.602570020826533e-06</v>
+        <v>0.0001401053159497678</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0002220409514848143</v>
+        <v>0.0002712109999265522</v>
       </c>
       <c r="U17" t="n">
-        <v>1.839544165704865e-05</v>
+        <v>0.0002490077749826014</v>
       </c>
       <c r="V17" t="n">
-        <v>4.768036887980998e-05</v>
+        <v>0.0002226656652055681</v>
       </c>
       <c r="W17" t="n">
-        <v>1.626770608709194e-05</v>
+        <v>0.0003833667142316699</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0001111946767196059</v>
+        <v>0.0002230819809483364</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.250299338717014e-05</v>
+        <v>0.0001721523294690996</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0001560789823997766</v>
+        <v>0.0004890099517069757</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.082661351072602e-05</v>
+        <v>0.0003892708627972752</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.202656130772084e-05</v>
+        <v>0.0001041484501911327</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.949752423679456e-05</v>
+        <v>5.969993071630597e-05</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.144266934716143e-05</v>
+        <v>0.0001049902566592209</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0001866286038421094</v>
+        <v>3.424633541726507e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.931456689722836e-05</v>
+        <v>4.305804031901062e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.055501141119748e-05</v>
+        <v>8.483503188472241e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.28224404156208e-05</v>
+        <v>0.0001538851065561175</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0003123694041278213</v>
+        <v>0.0002240717585664243</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0002399983641225845</v>
+        <v>3.239999205106869e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0001633677165955305</v>
+        <v>0.0002440833195578307</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0002454441855661571</v>
+        <v>0.0005180257139727473</v>
       </c>
       <c r="AM17" t="n">
-        <v>5.851079185958952e-05</v>
+        <v>4.663021900341846e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0001526626729173586</v>
+        <v>0.000161785603268072</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.723726381896995e-05</v>
+        <v>4.75545457447879e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.468989234534092e-05</v>
+        <v>0.0003143370558973402</v>
       </c>
       <c r="AQ17" t="n">
-        <v>7.059829840727616e-06</v>
+        <v>0.0001357361325062811</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.855664155911654e-05</v>
+        <v>0.0001323686738032848</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.771436942974105e-05</v>
+        <v>0.0003382745489943773</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0003210032591596246</v>
+        <v>0.0004163339035585523</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.516769205220044e-05</v>
+        <v>0.001850805361755192</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0004200482508167624</v>
+        <v>5.317186878528446e-05</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0002071522176265717</v>
+        <v>0.0003933737461920828</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.132660615141504e-05</v>
+        <v>0.0001270701177418232</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0002234266285086051</v>
+        <v>0.0009859914425760508</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6.236234912648797e-05</v>
+        <v>0.0004804204218089581</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.00014779411139898</v>
+        <v>0.0003022818418685347</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0001276054681511596</v>
+        <v>0.0006775622605346143</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0001351060782326385</v>
+        <v>0.0002184918557759374</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.139629239332862e-05</v>
+        <v>0.0006845276802778244</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.000303748354781419</v>
+        <v>0.000470369472168386</v>
       </c>
       <c r="BF17" t="n">
-        <v>4.853864083997905e-06</v>
+        <v>5.690490070264786e-06</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0002205401979153976</v>
+        <v>0.000359762052539736</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.0001147265793406405</v>
+        <v>0.0005288240499794483</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.0001433971774531528</v>
+        <v>0.0002667436783667654</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.0001010571431834251</v>
+        <v>0.0002178059366997331</v>
       </c>
       <c r="BK17" t="n">
-        <v>6.713675247738138e-06</v>
+        <v>0.0004607352311722934</v>
       </c>
       <c r="BL17" t="n">
-        <v>5.227274959906936e-05</v>
+        <v>4.027061368105933e-05</v>
       </c>
       <c r="BM17" t="n">
-        <v>8.126752800308168e-05</v>
+        <v>0.0004451006243471056</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.000153720480739139</v>
+        <v>0.0002057670790236443</v>
       </c>
       <c r="BO17" t="n">
-        <v>3.50849368260242e-05</v>
+        <v>1.503691601101309e-05</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0001882754731923342</v>
+        <v>1.667926335358061e-05</v>
       </c>
       <c r="BQ17" t="n">
-        <v>9.420383867109194e-05</v>
+        <v>0.0001033940789056942</v>
       </c>
       <c r="BR17" t="n">
-        <v>6.57829295960255e-05</v>
+        <v>0.0004019609477836639</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.0001427645474905148</v>
+        <v>0.0002185769553761929</v>
       </c>
       <c r="BT17" t="n">
-        <v>2.467144440743141e-05</v>
+        <v>0.0002001971151912585</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.0002901898114942014</v>
+        <v>0.000149001061799936</v>
       </c>
       <c r="BV17" t="n">
-        <v>4.357975558377802e-05</v>
+        <v>0.001013225060887635</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0001393716520396993</v>
+        <v>0.0002238885790575296</v>
       </c>
       <c r="BX17" t="n">
-        <v>7.12793626007624e-05</v>
+        <v>0.0001865222293417901</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.0001893007574835792</v>
+        <v>0.0002044246793957427</v>
       </c>
       <c r="BZ17" t="n">
-        <v>9.548370871925727e-05</v>
+        <v>0.0005086445016786456</v>
       </c>
       <c r="CA17" t="n">
-        <v>5.383515963330865e-05</v>
+        <v>0.0001122864341596141</v>
       </c>
       <c r="CB17" t="n">
-        <v>8.140932186506689e-05</v>
+        <v>6.418143311748281e-05</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.0002196077111875638</v>
+        <v>0.0004653797950595617</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.0001612907799426466</v>
+        <v>1.707663614070043e-05</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0001929402351379395</v>
+        <v>0.00043781942804344</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.0002252852427773178</v>
+        <v>0.0002557144034653902</v>
       </c>
       <c r="CG17" t="n">
-        <v>8.486525075568352e-06</v>
+        <v>0.0001521440863143653</v>
       </c>
       <c r="CH17" t="n">
-        <v>6.471121741924435e-05</v>
+        <v>0.0001739964645821601</v>
       </c>
       <c r="CI17" t="n">
-        <v>9.057256102096289e-05</v>
+        <v>0.000231744023039937</v>
       </c>
       <c r="CJ17" t="n">
-        <v>2.195481283706613e-05</v>
+        <v>0.000202635710593313</v>
       </c>
       <c r="CK17" t="n">
-        <v>3.691029633046128e-05</v>
+        <v>0.0001234422670677304</v>
       </c>
       <c r="CL17" t="n">
-        <v>3.343052230775356e-05</v>
+        <v>0.0002393354661762714</v>
       </c>
       <c r="CM17" t="n">
-        <v>8.539165719412267e-06</v>
+        <v>0.0005687858210876584</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.0002196279092459008</v>
+        <v>0.0001510048459749669</v>
       </c>
       <c r="CO17" t="n">
-        <v>6.539699825225398e-05</v>
+        <v>0.0001173322962131351</v>
       </c>
       <c r="CP17" t="n">
-        <v>8.520882693119347e-05</v>
+        <v>0.0009491594973951578</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.000252644473221153</v>
+        <v>0.0001728001661831513</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.0001189069589599967</v>
+        <v>0.0003274620103184134</v>
       </c>
       <c r="CS17" t="n">
-        <v>2.392900933045894e-05</v>
+        <v>0.0006054230034351349</v>
       </c>
       <c r="CT17" t="n">
-        <v>6.336916703730822e-05</v>
+        <v>0.0005762487999163568</v>
       </c>
       <c r="CU17" t="n">
-        <v>9.168377437163144e-05</v>
+        <v>0.0001321404415648431</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.0001430199190508574</v>
+        <v>3.063718031626195e-05</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.0001735652913339436</v>
+        <v>0.0003894262772519141</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.0002335067110834643</v>
+        <v>0.0002382185048190877</v>
       </c>
       <c r="CY17" t="n">
-        <v>1.196506673295517e-05</v>
+        <v>0.000313062162604183</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.0001643883006181568</v>
+        <v>0.0001894470333354548</v>
       </c>
       <c r="DA17" t="n">
-        <v>8.888512093108147e-05</v>
+        <v>0.0001821069454308599</v>
       </c>
       <c r="DB17" t="n">
-        <v>2.811479862430133e-05</v>
+        <v>0.0002083008730551228</v>
       </c>
       <c r="DC17" t="n">
-        <v>1.380632966174744e-05</v>
+        <v>0.0002793656894937158</v>
       </c>
       <c r="DD17" t="n">
-        <v>3.661110167740844e-05</v>
+        <v>0.0001461643259972334</v>
       </c>
       <c r="DE17" t="n">
-        <v>3.256980926380493e-05</v>
+        <v>0.0001522958918940276</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.0003059773298446089</v>
+        <v>0.0002213429543189704</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.000159658316988498</v>
+        <v>0.0001161384861916304</v>
       </c>
       <c r="DH17" t="n">
-        <v>8.134491508826613e-06</v>
+        <v>0.0007896851166151464</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0002145652833860368</v>
+        <v>0.0005905930884182453</v>
       </c>
       <c r="DJ17" t="n">
-        <v>8.270359830930829e-05</v>
+        <v>0.0006126686348579824</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.0001424948131898418</v>
+        <v>0.000258064828813076</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.0001016837923089042</v>
+        <v>0.0004960763035342097</v>
       </c>
       <c r="DM17" t="n">
-        <v>1.728128154354636e-05</v>
+        <v>0.0005068129976280034</v>
       </c>
       <c r="DN17" t="n">
-        <v>1.730240728647914e-05</v>
+        <v>2.240287176391575e-05</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.00021304827532731</v>
+        <v>7.424500654451549e-05</v>
       </c>
       <c r="DP17" t="n">
-        <v>7.966206612763926e-05</v>
+        <v>0.0002975109382532537</v>
       </c>
       <c r="DQ17" t="n">
-        <v>3.552994530764408e-05</v>
+        <v>3.891338928951882e-05</v>
       </c>
       <c r="DR17" t="n">
-        <v>7.039782212814316e-05</v>
+        <v>0.000106747895188164</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0001439089828636497</v>
+        <v>0.0001906333927763626</v>
       </c>
       <c r="DT17" t="n">
-        <v>1.768346919561736e-06</v>
+        <v>0.0003231667797081172</v>
       </c>
       <c r="DU17" t="n">
-        <v>3.060973540414125e-06</v>
+        <v>4.541871385299601e-05</v>
       </c>
       <c r="DV17" t="n">
-        <v>3.670556907309219e-06</v>
+        <v>3.041845047846437e-06</v>
       </c>
       <c r="DW17" t="n">
-        <v>9.666204277891666e-05</v>
+        <v>7.259455742314458e-06</v>
       </c>
       <c r="DX17" t="n">
-        <v>3.967894735978916e-05</v>
+        <v>0.0002921777777373791</v>
       </c>
       <c r="DY17" t="n">
-        <v>1.411726043443196e-05</v>
+        <v>0.0002312680881004781</v>
       </c>
       <c r="DZ17" t="n">
-        <v>5.657970541506074e-05</v>
+        <v>0.0003281287790741771</v>
       </c>
       <c r="EA17" t="n">
-        <v>8.156044350471348e-05</v>
+        <v>0.000149851170135662</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.000130700267618522</v>
+        <v>0.0001543551188660786</v>
       </c>
       <c r="EC17" t="n">
-        <v>3.172523429384455e-05</v>
+        <v>2.854301419574767e-05</v>
       </c>
       <c r="ED17" t="n">
-        <v>9.704366675578058e-05</v>
+        <v>6.149060209281743e-05</v>
       </c>
       <c r="EE17" t="n">
-        <v>5.327219696482643e-07</v>
+        <v>0.0002901730185840279</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.0002479759859852493</v>
+        <v>0.0001870728738140315</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.0001117452920880169</v>
+        <v>0.0005058028036728501</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.0002524176379665732</v>
+        <v>0.0001277402916457504</v>
       </c>
       <c r="EI17" t="n">
-        <v>6.382030551321805e-05</v>
+        <v>8.530612831236795e-05</v>
       </c>
       <c r="EJ17" t="n">
-        <v>5.654562846757472e-05</v>
+        <v>8.826842531561852e-06</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.0001879987539723516</v>
+        <v>9.90509579423815e-05</v>
       </c>
       <c r="EL17" t="n">
-        <v>6.748314262949862e-07</v>
+        <v>0.0002605983172543347</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.0001441599742975086</v>
+        <v>0.0001059943315340206</v>
       </c>
       <c r="EN17" t="n">
-        <v>8.64041576278396e-05</v>
+        <v>0.0001381750626023859</v>
       </c>
       <c r="EO17" t="n">
-        <v>5.378224886953831e-05</v>
+        <v>7.965932309161872e-05</v>
       </c>
       <c r="EP17" t="n">
-        <v>2.881887849071063e-05</v>
+        <v>0.0001693708472885191</v>
       </c>
       <c r="EQ17" t="n">
-        <v>4.594723941409029e-05</v>
+        <v>0.000262957822997123</v>
       </c>
       <c r="ER17" t="n">
-        <v>7.961793016875163e-06</v>
+        <v>0.0003585810482036322</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.0001667124452069402</v>
+        <v>0.0003869709034916013</v>
       </c>
       <c r="ET17" t="n">
-        <v>4.945396358380094e-05</v>
+        <v>0.0003347900055814534</v>
       </c>
       <c r="EU17" t="n">
-        <v>3.858767377096228e-05</v>
+        <v>0.0006096265278756618</v>
       </c>
       <c r="EV17" t="n">
-        <v>4.851631092606112e-05</v>
+        <v>0.0007073567830957472</v>
       </c>
       <c r="EW17" t="n">
-        <v>4.016313323518261e-05</v>
+        <v>6.676313932985067e-05</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.0001529022556496784</v>
+        <v>7.824660133337602e-05</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.0001569003507029265</v>
+        <v>0.0003918937582056969</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.00023253085964825</v>
+        <v>0.0001951446174643934</v>
       </c>
       <c r="FA17" t="n">
-        <v>2.134177975676721e-06</v>
+        <v>0.0001275360118597746</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.0001175306024379097</v>
+        <v>0.0001704374881228432</v>
       </c>
       <c r="FC17" t="n">
-        <v>2.801180926326197e-05</v>
+        <v>0.000183706171810627</v>
       </c>
       <c r="FD17" t="n">
-        <v>2.992034933413379e-05</v>
+        <v>0.0003731484466698021</v>
       </c>
       <c r="FE17" t="n">
-        <v>4.74490734632127e-05</v>
+        <v>0.0002252680569654331</v>
       </c>
       <c r="FF17" t="n">
-        <v>4.948623973177746e-05</v>
+        <v>0.000266029528575018</v>
       </c>
       <c r="FG17" t="n">
-        <v>7.358970469795167e-05</v>
+        <v>7.550418376922607e-05</v>
       </c>
       <c r="FH17" t="n">
-        <v>8.857163629727438e-05</v>
+        <v>9.998406312661245e-05</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.0002031950571108609</v>
+        <v>0.0003071638639084995</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.0001916410692501813</v>
+        <v>0.0004240829148329794</v>
       </c>
       <c r="FK17" t="n">
-        <v>4.674522642744705e-05</v>
+        <v>1.118220097851008e-05</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.0001028562692226842</v>
+        <v>5.717105523217469e-05</v>
       </c>
       <c r="FM17" t="n">
-        <v>1.491048897150904e-05</v>
+        <v>0.0002257265732623637</v>
       </c>
       <c r="FN17" t="n">
-        <v>5.921506453887559e-05</v>
+        <v>6.079641752876341e-05</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.0001188810274470598</v>
+        <v>0.000345197826391086</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.0001293940294999629</v>
+        <v>0.0003050802915822715</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.0004872592980973423</v>
+        <v>0.000434919202234596</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.000112463349069003</v>
+        <v>0.0002511414350010455</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.0001099073342629708</v>
+        <v>0.0002872783225029707</v>
       </c>
       <c r="FT17" t="n">
-        <v>6.638438208028674e-06</v>
+        <v>0.000116741270176135</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.0001561278768349439</v>
+        <v>0.0004089983412995934</v>
       </c>
       <c r="FV17" t="n">
-        <v>4.139843804296106e-05</v>
+        <v>0.0004194100620225072</v>
       </c>
       <c r="FW17" t="n">
-        <v>4.643905776902102e-05</v>
+        <v>0.0003814916126430035</v>
       </c>
       <c r="FX17" t="n">
-        <v>4.011704004369676e-05</v>
+        <v>0.0001091506346710958</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.0001081987284123898</v>
+        <v>0.0006044681067578495</v>
       </c>
       <c r="FZ17" t="n">
-        <v>9.663880337029696e-05</v>
+        <v>0.0002085015585180372</v>
       </c>
       <c r="GA17" t="n">
-        <v>4.787274065165548e-06</v>
+        <v>0.0001774251140886918</v>
       </c>
       <c r="GB17" t="n">
-        <v>4.05240170948673e-05</v>
+        <v>0.0002003666886594146</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.0001706587936496362</v>
+        <v>8.001503010746092e-05</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.0001356163702439517</v>
+        <v>0.0003490187809802592</v>
       </c>
       <c r="GE17" t="n">
-        <v>4.453331348486245e-05</v>
+        <v>0.0008567256736569107</v>
       </c>
       <c r="GF17" t="n">
-        <v>3.577355528250337e-05</v>
+        <v>8.090276969596744e-05</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.0001199033940793015</v>
+        <v>1.013339351629838e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0002366151747992262</v>
+        <v>2.809473244269611e-06</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0001096104533644393</v>
+        <v>1.658105065871496e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>4.354053817223758e-05</v>
+        <v>1.605075112820487e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001889604027383029</v>
+        <v>1.32879322336521e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001221149286720902</v>
+        <v>6.22611514700111e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>5.792632146039978e-05</v>
+        <v>2.223194542239071e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001719216088531539</v>
+        <v>8.398512818530435e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>3.754880890483037e-05</v>
+        <v>2.130318989657098e-06</v>
       </c>
       <c r="I18" t="n">
-        <v>7.933042070362717e-05</v>
+        <v>1.094757521968859e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002194528497057036</v>
+        <v>3.828065473499009e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>8.20797067717649e-05</v>
+        <v>1.241134486917872e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>5.970249912934378e-05</v>
+        <v>1.159369844572211e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0001734656689222902</v>
+        <v>1.002973112917971e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0001301701267948374</v>
+        <v>8.280100701085757e-06</v>
       </c>
       <c r="O18" t="n">
-        <v>1.850025728344917e-05</v>
+        <v>8.352429176738951e-06</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0001498232741141692</v>
+        <v>1.777254055923549e-06</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.159377567702904e-05</v>
+        <v>2.003791905735852e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0001436879538232461</v>
+        <v>6.815682809246937e-07</v>
       </c>
       <c r="S18" t="n">
-        <v>5.152380254003219e-06</v>
+        <v>6.895140813867329e-08</v>
       </c>
       <c r="T18" t="n">
-        <v>3.135323640890419e-05</v>
+        <v>3.878578809235478e-06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.487503232056042e-05</v>
+        <v>4.591151423483097e-07</v>
       </c>
       <c r="V18" t="n">
-        <v>1.780005550244823e-05</v>
+        <v>1.505763520981418e-06</v>
       </c>
       <c r="W18" t="n">
-        <v>9.456897487325477e-07</v>
+        <v>2.640689444888267e-06</v>
       </c>
       <c r="X18" t="n">
-        <v>1.393873480992625e-05</v>
+        <v>2.468265392963076e-06</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.083225601585582e-05</v>
+        <v>3.219713562430115e-06</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.155864710104652e-05</v>
+        <v>1.567921913192549e-06</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.093943087151274e-05</v>
+        <v>3.478800181255792e-06</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.329643237113487e-05</v>
+        <v>3.984489467256935e-07</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.797270670067519e-05</v>
+        <v>2.431965185678564e-06</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.820581908570603e-06</v>
+        <v>1.809280774978106e-06</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.846334948320873e-06</v>
+        <v>1.185483142762678e-06</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.381589966826141e-05</v>
+        <v>1.133084083448921e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.777121699182317e-05</v>
+        <v>9.486973340244731e-07</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.418185224290937e-05</v>
+        <v>2.22671042138245e-06</v>
       </c>
       <c r="AI18" t="n">
-        <v>4.164969868725166e-05</v>
+        <v>5.360205364013382e-07</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.581760200991994e-06</v>
+        <v>1.450937503477689e-07</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.381735950824805e-05</v>
+        <v>2.443326593493111e-06</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.404878250672482e-05</v>
+        <v>2.041759671556065e-06</v>
       </c>
       <c r="AM18" t="n">
-        <v>9.984731150325388e-06</v>
+        <v>5.144946726431954e-07</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.181606734870002e-05</v>
+        <v>1.061771740751283e-06</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.751477950369008e-05</v>
+        <v>2.21239315578714e-06</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.92192741855979e-05</v>
+        <v>1.200173045390329e-07</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.503576640971005e-05</v>
+        <v>1.775652208380052e-06</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.964159673661925e-05</v>
+        <v>7.75310468270618e-07</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.367657311377116e-07</v>
+        <v>1.284649670196814e-06</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0001021366624627262</v>
+        <v>1.178708998850198e-06</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.436958129692357e-05</v>
+        <v>1.331370276602684e-05</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.142695277347229e-05</v>
+        <v>2.574056907178601e-06</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.008590854529757e-05</v>
+        <v>3.190767074556788e-06</v>
       </c>
       <c r="AX18" t="n">
-        <v>8.7191392594832e-06</v>
+        <v>2.370091749526182e-07</v>
       </c>
       <c r="AY18" t="n">
-        <v>2.172409585909918e-05</v>
+        <v>1.698324751941982e-07</v>
       </c>
       <c r="AZ18" t="n">
-        <v>1.94345775526017e-05</v>
+        <v>3.269332182753715e-07</v>
       </c>
       <c r="BA18" t="n">
-        <v>6.452213710872456e-05</v>
+        <v>4.538101165962871e-06</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.046408841735683e-05</v>
+        <v>9.294667506765109e-07</v>
       </c>
       <c r="BC18" t="n">
-        <v>7.95142914284952e-05</v>
+        <v>7.504449968109839e-07</v>
       </c>
       <c r="BD18" t="n">
-        <v>6.111363290983718e-06</v>
+        <v>3.340929879414034e-07</v>
       </c>
       <c r="BE18" t="n">
-        <v>2.248209784738719e-05</v>
+        <v>6.515310360555304e-06</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.408271145919571e-06</v>
+        <v>2.645339691298432e-06</v>
       </c>
       <c r="BG18" t="n">
-        <v>4.881540371570736e-05</v>
+        <v>6.591756118723424e-06</v>
       </c>
       <c r="BH18" t="n">
-        <v>1.782444269338157e-05</v>
+        <v>2.827209527822561e-06</v>
       </c>
       <c r="BI18" t="n">
-        <v>7.728064520051703e-05</v>
+        <v>1.662858153395064e-06</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.0001076229236787185</v>
+        <v>3.237367081965203e-06</v>
       </c>
       <c r="BK18" t="n">
-        <v>9.267650966648944e-06</v>
+        <v>2.02917163960592e-07</v>
       </c>
       <c r="BL18" t="n">
-        <v>1.763006184773985e-05</v>
+        <v>2.653547653608257e-06</v>
       </c>
       <c r="BM18" t="n">
-        <v>2.270335608045571e-05</v>
+        <v>4.667727353080409e-06</v>
       </c>
       <c r="BN18" t="n">
-        <v>1.02269186754711e-05</v>
+        <v>3.254913735872833e-06</v>
       </c>
       <c r="BO18" t="n">
-        <v>3.753022610908374e-05</v>
+        <v>1.914081167342374e-06</v>
       </c>
       <c r="BP18" t="n">
-        <v>1.309079652855871e-05</v>
+        <v>4.27467512054136e-06</v>
       </c>
       <c r="BQ18" t="n">
-        <v>4.19646949012531e-06</v>
+        <v>2.169065965063055e-06</v>
       </c>
       <c r="BR18" t="n">
-        <v>3.904246841557324e-05</v>
+        <v>7.402444452964119e-07</v>
       </c>
       <c r="BS18" t="n">
-        <v>6.568136541318381e-06</v>
+        <v>2.984867478517117e-06</v>
       </c>
       <c r="BT18" t="n">
-        <v>1.037487891153432e-05</v>
+        <v>2.047148427664069e-06</v>
       </c>
       <c r="BU18" t="n">
-        <v>9.547892841510475e-05</v>
+        <v>7.451351393683581e-07</v>
       </c>
       <c r="BV18" t="n">
-        <v>8.823703865346033e-06</v>
+        <v>6.710606157867005e-06</v>
       </c>
       <c r="BW18" t="n">
-        <v>1.719982174108736e-05</v>
+        <v>2.459396000631386e-06</v>
       </c>
       <c r="BX18" t="n">
-        <v>8.743950456846505e-05</v>
+        <v>1.465961418034567e-06</v>
       </c>
       <c r="BY18" t="n">
-        <v>4.722052835859358e-05</v>
+        <v>1.474168129789177e-07</v>
       </c>
       <c r="BZ18" t="n">
-        <v>1.49882907862775e-05</v>
+        <v>1.282732682739152e-06</v>
       </c>
       <c r="CA18" t="n">
-        <v>2.39341170527041e-05</v>
+        <v>3.100333287875401e-06</v>
       </c>
       <c r="CB18" t="n">
-        <v>3.133342397632077e-05</v>
+        <v>1.165748471976258e-06</v>
       </c>
       <c r="CC18" t="n">
-        <v>3.240539444959722e-05</v>
+        <v>1.697987158877368e-06</v>
       </c>
       <c r="CD18" t="n">
-        <v>3.789627953665331e-05</v>
+        <v>1.699668246146757e-07</v>
       </c>
       <c r="CE18" t="n">
-        <v>5.796098412247375e-05</v>
+        <v>2.706833356569405e-06</v>
       </c>
       <c r="CF18" t="n">
-        <v>1.610492108738981e-05</v>
+        <v>1.99351802621095e-06</v>
       </c>
       <c r="CG18" t="n">
-        <v>5.783001688541844e-05</v>
+        <v>1.016632836581266e-06</v>
       </c>
       <c r="CH18" t="n">
-        <v>2.331135328859091e-05</v>
+        <v>3.712572151925997e-07</v>
       </c>
       <c r="CI18" t="n">
-        <v>6.684135769319255e-07</v>
+        <v>1.194514766211796e-06</v>
       </c>
       <c r="CJ18" t="n">
-        <v>4.702094156527892e-05</v>
+        <v>4.662415449274704e-07</v>
       </c>
       <c r="CK18" t="n">
-        <v>4.519592948781792e-06</v>
+        <v>5.907945705985185e-07</v>
       </c>
       <c r="CL18" t="n">
-        <v>4.264991730451584e-06</v>
+        <v>1.726179561956087e-06</v>
       </c>
       <c r="CM18" t="n">
-        <v>1.154105302703101e-05</v>
+        <v>3.896803718816955e-06</v>
       </c>
       <c r="CN18" t="n">
-        <v>4.96012216899544e-06</v>
+        <v>8.374228741558909e-07</v>
       </c>
       <c r="CO18" t="n">
-        <v>1.233934381161816e-05</v>
+        <v>1.735265414026799e-06</v>
       </c>
       <c r="CP18" t="n">
-        <v>2.88688297587214e-05</v>
+        <v>5.204315129958559e-06</v>
       </c>
       <c r="CQ18" t="n">
-        <v>6.18299818597734e-05</v>
+        <v>3.590785354390391e-06</v>
       </c>
       <c r="CR18" t="n">
-        <v>3.421262226765975e-05</v>
+        <v>5.84658437219332e-07</v>
       </c>
       <c r="CS18" t="n">
-        <v>1.290229920414276e-05</v>
+        <v>3.449613359407522e-06</v>
       </c>
       <c r="CT18" t="n">
-        <v>6.24108406555024e-06</v>
+        <v>2.641771459366282e-07</v>
       </c>
       <c r="CU18" t="n">
-        <v>7.75626722315792e-06</v>
+        <v>1.19770004403108e-06</v>
       </c>
       <c r="CV18" t="n">
-        <v>3.059272057726048e-05</v>
+        <v>1.620220047016119e-07</v>
       </c>
       <c r="CW18" t="n">
-        <v>5.818540375912562e-05</v>
+        <v>2.274733787999139e-06</v>
       </c>
       <c r="CX18" t="n">
-        <v>2.102609869325534e-05</v>
+        <v>1.821907858357008e-06</v>
       </c>
       <c r="CY18" t="n">
-        <v>4.399809404276311e-05</v>
+        <v>2.093994680762989e-06</v>
       </c>
       <c r="CZ18" t="n">
-        <v>9.039613360073417e-07</v>
+        <v>1.07400137494551e-06</v>
       </c>
       <c r="DA18" t="n">
-        <v>2.388124585195328e-06</v>
+        <v>1.511067694082158e-06</v>
       </c>
       <c r="DB18" t="n">
-        <v>4.24875870521646e-05</v>
+        <v>1.092303591576638e-06</v>
       </c>
       <c r="DC18" t="n">
-        <v>2.158640654670307e-06</v>
+        <v>7.208464580799046e-07</v>
       </c>
       <c r="DD18" t="n">
-        <v>4.871258170169313e-06</v>
+        <v>1.220538251800463e-06</v>
       </c>
       <c r="DE18" t="n">
-        <v>8.581969268561807e-06</v>
+        <v>3.031518417628831e-06</v>
       </c>
       <c r="DF18" t="n">
-        <v>5.990785575704649e-05</v>
+        <v>3.221072120140889e-07</v>
       </c>
       <c r="DG18" t="n">
-        <v>3.515669595799409e-05</v>
+        <v>4.860785793425748e-06</v>
       </c>
       <c r="DH18" t="n">
-        <v>4.567783616948873e-05</v>
+        <v>7.570969501102809e-06</v>
       </c>
       <c r="DI18" t="n">
-        <v>7.787310460116714e-05</v>
+        <v>2.432720521028386e-06</v>
       </c>
       <c r="DJ18" t="n">
-        <v>3.252356327720918e-05</v>
+        <v>4.838684617425315e-07</v>
       </c>
       <c r="DK18" t="n">
-        <v>1.089500619855244e-05</v>
+        <v>8.364089580936707e-07</v>
       </c>
       <c r="DL18" t="n">
-        <v>7.544046820839867e-05</v>
+        <v>2.800397624014295e-06</v>
       </c>
       <c r="DM18" t="n">
-        <v>8.53649980854243e-05</v>
+        <v>9.829374221226317e-07</v>
       </c>
       <c r="DN18" t="n">
-        <v>4.067487225256627e-06</v>
+        <v>4.081823590240674e-07</v>
       </c>
       <c r="DO18" t="n">
-        <v>4.581267057801597e-05</v>
+        <v>5.601468728855252e-07</v>
       </c>
       <c r="DP18" t="n">
-        <v>3.120433757430874e-05</v>
+        <v>2.538873559387866e-06</v>
       </c>
       <c r="DQ18" t="n">
-        <v>3.4839213185478e-05</v>
+        <v>8.181287398656423e-07</v>
       </c>
       <c r="DR18" t="n">
-        <v>1.951562080648728e-05</v>
+        <v>5.066428343525331e-07</v>
       </c>
       <c r="DS18" t="n">
-        <v>2.377705823164433e-05</v>
+        <v>4.894052381132497e-07</v>
       </c>
       <c r="DT18" t="n">
-        <v>2.823795693984721e-05</v>
+        <v>4.803117690244108e-07</v>
       </c>
       <c r="DU18" t="n">
-        <v>2.667908120201901e-05</v>
+        <v>9.217226306645898e-07</v>
       </c>
       <c r="DV18" t="n">
-        <v>5.439771030069096e-06</v>
+        <v>2.551777242842945e-06</v>
       </c>
       <c r="DW18" t="n">
-        <v>1.519622128398623e-05</v>
+        <v>3.246645974286366e-07</v>
       </c>
       <c r="DX18" t="n">
-        <v>2.236094223917462e-05</v>
+        <v>3.581598321034107e-06</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.712689663690981e-05</v>
+        <v>3.698319687828189e-06</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.950181967913522e-06</v>
+        <v>3.470144349648763e-08</v>
       </c>
       <c r="EA18" t="n">
-        <v>5.240971950115636e-05</v>
+        <v>1.202561065838381e-06</v>
       </c>
       <c r="EB18" t="n">
-        <v>1.340686048934003e-05</v>
+        <v>3.359319180162856e-06</v>
       </c>
       <c r="EC18" t="n">
-        <v>3.499099329928868e-05</v>
+        <v>7.601746574437129e-07</v>
       </c>
       <c r="ED18" t="n">
-        <v>5.13426202815026e-05</v>
+        <v>4.90560807975271e-07</v>
       </c>
       <c r="EE18" t="n">
-        <v>2.907921407313552e-05</v>
+        <v>6.324876267171931e-07</v>
       </c>
       <c r="EF18" t="n">
-        <v>6.800327537348494e-05</v>
+        <v>1.300747840105032e-06</v>
       </c>
       <c r="EG18" t="n">
-        <v>6.322973786154762e-05</v>
+        <v>1.682904212430003e-06</v>
       </c>
       <c r="EH18" t="n">
-        <v>8.389330105273984e-06</v>
+        <v>9.904517810355173e-07</v>
       </c>
       <c r="EI18" t="n">
-        <v>9.249793947674334e-05</v>
+        <v>1.479862589803815e-06</v>
       </c>
       <c r="EJ18" t="n">
-        <v>3.761441257665865e-05</v>
+        <v>2.116036284860456e-06</v>
       </c>
       <c r="EK18" t="n">
-        <v>2.233697159681469e-05</v>
+        <v>1.07140670024819e-06</v>
       </c>
       <c r="EL18" t="n">
-        <v>2.529004996176809e-05</v>
+        <v>1.600597784090496e-06</v>
       </c>
       <c r="EM18" t="n">
-        <v>2.206317731179297e-06</v>
+        <v>1.282399011870439e-06</v>
       </c>
       <c r="EN18" t="n">
-        <v>4.153603185841348e-06</v>
+        <v>5.887015959160635e-07</v>
       </c>
       <c r="EO18" t="n">
-        <v>4.409856046549976e-06</v>
+        <v>2.981901161547285e-07</v>
       </c>
       <c r="EP18" t="n">
-        <v>6.450006912928075e-05</v>
+        <v>9.577230457580299e-07</v>
       </c>
       <c r="EQ18" t="n">
-        <v>1.196008815895766e-05</v>
+        <v>2.396980107732816e-06</v>
       </c>
       <c r="ER18" t="n">
-        <v>1.18775697046658e-05</v>
+        <v>8.789331218395091e-08</v>
       </c>
       <c r="ES18" t="n">
-        <v>3.679256406030618e-05</v>
+        <v>1.868050617304107e-06</v>
       </c>
       <c r="ET18" t="n">
-        <v>3.650652843134594e-06</v>
+        <v>3.958626564326551e-07</v>
       </c>
       <c r="EU18" t="n">
-        <v>2.34885374084115e-06</v>
+        <v>1.253853383786918e-06</v>
       </c>
       <c r="EV18" t="n">
-        <v>2.595542900962755e-05</v>
+        <v>3.106696567556355e-06</v>
       </c>
       <c r="EW18" t="n">
-        <v>1.4041103895579e-05</v>
+        <v>1.211161702485697e-06</v>
       </c>
       <c r="EX18" t="n">
-        <v>3.581596320145763e-05</v>
+        <v>4.331501770593604e-07</v>
       </c>
       <c r="EY18" t="n">
-        <v>4.606908623827621e-05</v>
+        <v>2.164047828046023e-06</v>
       </c>
       <c r="EZ18" t="n">
-        <v>2.269184733449947e-05</v>
+        <v>1.599482970959798e-06</v>
       </c>
       <c r="FA18" t="n">
-        <v>4.722683297586627e-05</v>
+        <v>1.294003823204548e-06</v>
       </c>
       <c r="FB18" t="n">
-        <v>8.102974788926076e-06</v>
+        <v>5.680760750692571e-09</v>
       </c>
       <c r="FC18" t="n">
-        <v>1.712579978629947e-05</v>
+        <v>1.438951358068152e-06</v>
       </c>
       <c r="FD18" t="n">
-        <v>4.157775401836261e-05</v>
+        <v>8.006699658835714e-07</v>
       </c>
       <c r="FE18" t="n">
-        <v>4.08860341849504e-06</v>
+        <v>2.691105294161389e-07</v>
       </c>
       <c r="FF18" t="n">
-        <v>4.107319455215475e-06</v>
+        <v>1.930848384290584e-06</v>
       </c>
       <c r="FG18" t="n">
-        <v>3.054642729694024e-05</v>
+        <v>1.300948497373611e-06</v>
       </c>
       <c r="FH18" t="n">
-        <v>6.339926585496869e-06</v>
+        <v>1.608064394531539e-06</v>
       </c>
       <c r="FI18" t="n">
-        <v>1.521762806078186e-05</v>
+        <v>4.365230324765434e-06</v>
       </c>
       <c r="FJ18" t="n">
-        <v>2.503686300769914e-05</v>
+        <v>2.795230329866172e-06</v>
       </c>
       <c r="FK18" t="n">
-        <v>3.551857662387192e-05</v>
+        <v>7.644734409950615e-07</v>
       </c>
       <c r="FL18" t="n">
-        <v>2.333663178433198e-05</v>
+        <v>2.412725450540165e-07</v>
       </c>
       <c r="FM18" t="n">
-        <v>2.944879452115856e-05</v>
+        <v>9.829577720665839e-07</v>
       </c>
       <c r="FN18" t="n">
-        <v>3.769712202483788e-05</v>
+        <v>2.222478315161425e-06</v>
       </c>
       <c r="FO18" t="n">
-        <v>8.256807632278651e-06</v>
+        <v>1.936860599016654e-06</v>
       </c>
       <c r="FP18" t="n">
-        <v>4.391543916426599e-05</v>
+        <v>7.505830694753968e-07</v>
       </c>
       <c r="FQ18" t="n">
-        <v>7.57899324526079e-05</v>
+        <v>2.772993411781499e-06</v>
       </c>
       <c r="FR18" t="n">
-        <v>2.049578688456677e-05</v>
+        <v>1.430886982234369e-07</v>
       </c>
       <c r="FS18" t="n">
-        <v>7.472652214346454e-06</v>
+        <v>1.464575802856416e-07</v>
       </c>
       <c r="FT18" t="n">
-        <v>5.323994628270157e-05</v>
+        <v>3.865409325953806e-06</v>
       </c>
       <c r="FU18" t="n">
-        <v>0.0001023113363771699</v>
+        <v>1.085606982087484e-06</v>
       </c>
       <c r="FV18" t="n">
-        <v>5.239515303401276e-05</v>
+        <v>2.746762220340315e-06</v>
       </c>
       <c r="FW18" t="n">
-        <v>2.919776306953281e-06</v>
+        <v>1.084993527911138e-06</v>
       </c>
       <c r="FX18" t="n">
-        <v>3.745111098396592e-05</v>
+        <v>2.35415541283146e-06</v>
       </c>
       <c r="FY18" t="n">
-        <v>3.807571192737669e-05</v>
+        <v>4.188178536423948e-06</v>
       </c>
       <c r="FZ18" t="n">
-        <v>5.728081760025816e-06</v>
+        <v>2.135103841283126e-06</v>
       </c>
       <c r="GA18" t="n">
-        <v>2.113422306138091e-05</v>
+        <v>9.346578622171364e-08</v>
       </c>
       <c r="GB18" t="n">
-        <v>5.117099135532044e-05</v>
+        <v>3.643971808742208e-07</v>
       </c>
       <c r="GC18" t="n">
-        <v>2.028603557846509e-05</v>
+        <v>5.334486559149809e-06</v>
       </c>
       <c r="GD18" t="n">
-        <v>2.076285818475299e-05</v>
+        <v>2.460961695760489e-06</v>
       </c>
       <c r="GE18" t="n">
-        <v>4.726815677713603e-05</v>
+        <v>5.809892627439694e-06</v>
       </c>
       <c r="GF18" t="n">
-        <v>8.956695637607481e-06</v>
+        <v>5.639505502585962e-07</v>
       </c>
       <c r="GG18" t="n">
-        <v>2.290253905812278e-05</v>
+        <v>2.144426616723649e-06</v>
       </c>
     </row>
   </sheetData>
